--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57938-2025</t>
+          <t>A 66243-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45982.28196759259</v>
+        <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1167,651 +1167,651 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 58185-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45983.47664351852</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 58554-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45986.33541666667</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G11" t="n">
         <v>2.4</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 58185-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45983.47664351852</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H10" t="n">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 24223-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44336</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>4.2</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H12" t="n">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 32279-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 32279-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45109</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Barkticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 66243-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 66246-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3339,14 +3339,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36009-2021</t>
+          <t>A 36012-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36012-2021</t>
+          <t>A 36009-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4541,14 +4541,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44680</v>
+        <v>44655</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,8 +4560,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4598,14 +4603,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44655</v>
+        <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,13 +4622,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4717,14 +4717,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 55450-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>10.4</v>
+        <v>0.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44594</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 55450-2021</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44475</v>
+        <v>44651</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4850,8 +4850,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4893,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>44830</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4913,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44263</v>
+        <v>45755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4970,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5002,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44387</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5059,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5084,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5116,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5173,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45237</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5198,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5230,14 +5235,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45236</v>
+        <v>45483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5255,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5287,14 +5292,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>45184</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5306,8 +5311,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5344,14 +5354,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>45036</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5374,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5401,14 +5411,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45076</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5431,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5458,14 +5468,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44470</v>
+        <v>44496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5488,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5515,14 +5525,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45076</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5545,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5572,14 +5582,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44725</v>
+        <v>45343</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5602,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5629,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44468</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5659,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5686,14 +5696,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45615</v>
+        <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5716,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5753,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44452</v>
+        <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,7 +5773,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5800,14 +5810,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44918</v>
+        <v>44594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5820,7 +5830,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5857,14 +5867,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5876,8 +5886,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5914,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45884</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5934,7 +5949,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5971,14 +5986,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45884</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5990,13 +6005,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6033,14 +6043,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45021</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6053,7 +6063,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6090,14 +6100,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44496</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6110,7 +6120,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>17.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6147,14 +6157,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44961</v>
+        <v>44999</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6166,8 +6176,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6204,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44918</v>
+        <v>45076</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6224,7 +6239,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6261,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>45076</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6281,7 +6296,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6318,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>44623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6338,7 +6353,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6375,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45321</v>
+        <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6395,7 +6410,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6432,14 +6447,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6451,13 +6466,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6494,14 +6504,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>44903</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6513,13 +6523,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6556,14 +6561,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>44678</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6576,7 +6581,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6613,14 +6618,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45041</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6632,13 +6637,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>15.9</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>44421</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44979</v>
+        <v>44407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44918</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45905</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45905</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45905</v>
+        <v>45096</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6979,8 +6979,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7017,14 +7022,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45210</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7036,13 +7041,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45905</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44859</v>
+        <v>45432</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44859</v>
+        <v>45754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7212,8 +7212,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7250,14 +7255,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45905</v>
+        <v>44511</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7270,7 +7275,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7307,14 +7312,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44358</v>
+        <v>45236</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7327,7 +7332,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7364,14 +7369,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7384,7 +7389,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7421,14 +7426,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46023</v>
+        <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7441,7 +7446,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7478,14 +7483,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7498,7 +7503,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7535,14 +7540,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7555,7 +7560,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7592,14 +7597,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45432</v>
+        <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7617,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7649,14 +7654,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45306</v>
+        <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7674,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7706,14 +7711,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7731,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>6.3</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7763,14 +7768,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44474</v>
+        <v>45428</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7788,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7820,14 +7825,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45918</v>
+        <v>45175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7840,7 +7845,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7877,14 +7882,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>45918</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7897,7 +7902,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7934,14 +7939,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>45561</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7954,7 +7959,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>16.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7991,14 +7996,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45529</v>
+        <v>45923</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8011,7 +8016,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8048,14 +8053,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44903</v>
+        <v>44320</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8068,7 +8073,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8105,14 +8110,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44476</v>
+        <v>45924</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8125,7 +8130,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8162,14 +8167,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44496</v>
+        <v>45924</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8182,7 +8187,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8219,14 +8224,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45923</v>
+        <v>44452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8239,7 +8244,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8276,14 +8281,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8296,7 +8301,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8333,14 +8338,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45924</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8353,7 +8358,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8390,14 +8395,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45924</v>
+        <v>44902</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8410,7 +8415,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8447,14 +8452,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44475</v>
+        <v>45938.5725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8466,8 +8471,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8504,14 +8514,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8523,8 +8533,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8561,14 +8576,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8580,8 +8595,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8618,14 +8638,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44511</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8638,7 +8658,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8675,14 +8695,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45448</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8694,8 +8714,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8732,14 +8757,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8751,8 +8776,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8789,14 +8819,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8809,7 +8839,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8846,14 +8876,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44623</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8866,7 +8896,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8903,14 +8933,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44407</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8923,7 +8953,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8960,14 +8990,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44938</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8980,7 +9010,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9017,14 +9047,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>44685</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9036,13 +9066,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9079,14 +9104,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9098,13 +9123,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9141,14 +9161,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45938.5725</v>
+        <v>44945.4825</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9160,13 +9180,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9203,14 +9218,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>44943</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9222,13 +9237,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9265,14 +9275,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45715</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9284,13 +9294,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9327,14 +9332,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44617</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9348,11 +9353,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>10.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9389,14 +9394,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9414,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9446,14 +9451,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9471,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>10.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9503,14 +9508,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9528,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9560,14 +9565,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45041</v>
+        <v>44573</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9585,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9617,14 +9622,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44421</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9642,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9674,14 +9679,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9699,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9731,14 +9736,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44671</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9751,7 +9756,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9788,14 +9793,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45056</v>
+        <v>45247</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9808,7 +9813,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9845,14 +9850,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45285</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9865,7 +9870,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9902,14 +9907,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45594</v>
+        <v>45239</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9922,7 +9927,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9959,14 +9964,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44938</v>
+        <v>44565</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9979,7 +9984,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10016,14 +10021,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10035,13 +10040,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>10.7</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10078,14 +10078,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10135,14 +10135,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46013</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,14 +10192,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45705</v>
+        <v>44990</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10249,14 +10249,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44859</v>
+        <v>44263</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10306,14 +10306,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46013</v>
+        <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10363,14 +10363,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45552</v>
+        <v>45597</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10420,14 +10420,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>44496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10477,14 +10477,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45623</v>
+        <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10534,14 +10534,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44937</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10553,8 +10553,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10591,14 +10596,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44990</v>
+        <v>44918</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10611,7 +10616,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10648,14 +10653,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45428</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10667,8 +10672,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>3.7</v>
+        <v>15.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10705,14 +10715,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10725,7 +10735,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10762,14 +10772,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10782,7 +10792,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10819,14 +10829,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44496</v>
+        <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10839,7 +10849,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10876,14 +10886,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10895,8 +10905,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10933,14 +10948,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44999</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10952,13 +10967,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10995,14 +11005,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45174</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11015,7 +11025,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11052,14 +11062,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11071,13 +11081,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11114,14 +11119,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>44859</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11134,7 +11139,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11171,14 +11176,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45302</v>
+        <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11191,7 +11196,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11228,14 +11233,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45418</v>
+        <v>45630</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11248,7 +11253,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11285,14 +11290,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45096</v>
+        <v>44859</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11304,13 +11309,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11347,14 +11347,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44993</v>
+        <v>44859</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11366,13 +11366,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>18.6</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11409,14 +11404,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44573</v>
+        <v>46023</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11429,7 +11424,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11466,14 +11461,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11485,8 +11480,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11523,14 +11523,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45754</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11542,13 +11542,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11585,14 +11580,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>44475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11604,13 +11599,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11647,14 +11637,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45483</v>
+        <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11667,7 +11657,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11704,14 +11694,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44594</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11724,7 +11714,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11761,14 +11751,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45630</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11781,7 +11771,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11818,14 +11808,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45051</v>
+        <v>44468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11838,7 +11828,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11875,14 +11865,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45036</v>
+        <v>44474</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11895,7 +11885,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11932,14 +11922,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44593</v>
+        <v>45056</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11952,7 +11942,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11989,14 +11979,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45191</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12009,7 +11999,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12046,14 +12036,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45109</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12066,7 +12056,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12103,14 +12093,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44651</v>
+        <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12124,11 +12114,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12165,14 +12155,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>44893</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12185,7 +12175,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12222,14 +12212,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12242,7 +12232,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7.5</v>
+        <v>0.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12279,14 +12269,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45440</v>
+        <v>44990</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12299,7 +12289,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12336,14 +12326,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44945.4825</v>
+        <v>44993</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12355,8 +12345,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>18.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12393,14 +12388,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45076</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12413,7 +12408,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12450,14 +12445,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44594</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12470,7 +12465,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12507,14 +12502,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44565</v>
+        <v>45705</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12527,7 +12522,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12564,14 +12559,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45755</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12584,7 +12579,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12621,14 +12616,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45239</v>
+        <v>45623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12641,7 +12636,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12678,14 +12673,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45302</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12698,7 +12693,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12735,14 +12730,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12754,13 +12749,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12797,14 +12787,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44651</v>
+        <v>45237</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12816,13 +12806,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12859,14 +12844,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45109</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12878,8 +12863,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12916,14 +12906,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12935,13 +12925,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12978,14 +12963,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44762</v>
+        <v>44470</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,13 +12982,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13040,14 +13020,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45247</v>
+        <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13059,8 +13039,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13097,14 +13082,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13117,7 +13102,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13154,14 +13139,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44791</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13159,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13211,14 +13196,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45194</v>
+        <v>45072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13230,8 +13215,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13268,14 +13258,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45135</v>
+        <v>44358</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13287,13 +13277,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13330,14 +13315,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45755</v>
+        <v>44387</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13350,7 +13335,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13387,14 +13372,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45194</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13407,7 +13392,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13444,14 +13429,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13464,7 +13449,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13501,14 +13486,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45755</v>
+        <v>44979</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13521,7 +13506,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13558,14 +13543,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45715</v>
+        <v>46013</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13578,7 +13563,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13615,14 +13600,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45317</v>
+        <v>44565</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13635,7 +13620,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.6</v>
+        <v>13.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13672,14 +13657,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13692,7 +13677,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13729,14 +13714,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>44725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13749,7 +13734,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13786,14 +13771,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45210</v>
+        <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13806,7 +13791,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13843,14 +13828,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13862,13 +13847,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13905,14 +13885,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44678</v>
+        <v>45076</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13925,7 +13905,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13962,14 +13942,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44608</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13981,8 +13961,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14019,14 +14004,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14039,7 +14024,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14076,14 +14061,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14093,6 +14078,11 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G228" t="n">
@@ -14133,14 +14123,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44990</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14153,7 +14143,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14190,14 +14180,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45210</v>
+        <v>45615</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14210,7 +14200,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.7</v>
+        <v>8.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14247,14 +14237,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44910</v>
+        <v>45448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14266,13 +14256,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14309,14 +14294,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14329,7 +14314,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14366,14 +14351,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14386,7 +14371,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14423,14 +14408,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44798</v>
+        <v>45321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14443,7 +14428,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14480,14 +14465,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45343</v>
+        <v>44938</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14500,7 +14485,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14537,14 +14522,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45072</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14556,13 +14541,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14599,14 +14579,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14619,7 +14599,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>9.1</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14656,14 +14636,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14676,7 +14656,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14713,14 +14693,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44565</v>
+        <v>45174</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14733,7 +14713,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14770,14 +14750,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44573</v>
+        <v>45552</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14790,7 +14770,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14827,14 +14807,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44859</v>
+        <v>45021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14847,7 +14827,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14884,14 +14864,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14903,8 +14883,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14941,14 +14926,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45597</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14961,7 +14946,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14998,14 +14983,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45076</v>
+        <v>45110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15018,7 +15003,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15055,14 +15040,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45110</v>
+        <v>44671</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15075,7 +15060,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15112,14 +15097,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45175</v>
+        <v>45317</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15132,7 +15117,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15169,14 +15154,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45281</v>
+        <v>44961</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15189,7 +15174,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15226,14 +15211,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44830</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15246,7 +15231,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15283,14 +15268,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15303,7 +15288,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15340,14 +15325,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15359,8 +15344,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15397,14 +15387,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>45418</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15417,7 +15407,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15454,14 +15444,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45440</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15474,7 +15464,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15511,14 +15501,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44859</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15531,7 +15521,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15568,14 +15558,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15588,7 +15578,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15625,14 +15615,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45184</v>
+        <v>45210</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15644,13 +15634,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15687,14 +15672,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44893</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15707,7 +15692,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15744,14 +15729,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15764,7 +15749,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15801,14 +15786,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45630</v>
+        <v>45281</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15821,7 +15806,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15858,14 +15843,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>44798</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15878,7 +15863,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15915,14 +15900,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44320</v>
+        <v>45594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15935,7 +15920,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>7.7</v>
+        <v>2.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15972,14 +15957,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15991,8 +15976,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16029,14 +16019,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45285</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16048,8 +16038,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16086,14 +16081,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16105,8 +16100,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16143,14 +16143,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44902</v>
+        <v>44573</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16200,14 +16200,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44943</v>
+        <v>45076</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16257,14 +16257,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44608</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16276,13 +16276,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16319,14 +16314,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>44594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16338,13 +16333,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16381,14 +16371,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44910</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16400,8 +16390,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16438,14 +16433,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45749</v>
+        <v>45630</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16458,7 +16453,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16495,14 +16490,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16514,13 +16509,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16557,14 +16547,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44744</v>
+        <v>45135</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16576,8 +16566,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16614,14 +16609,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45226</v>
+        <v>44496</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16634,7 +16629,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16671,14 +16666,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16691,7 +16686,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16728,14 +16723,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>44938</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16748,7 +16743,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16785,14 +16780,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45598</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16805,7 +16800,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16842,14 +16837,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45594</v>
+        <v>44744</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16861,13 +16856,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G276" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16904,14 +16894,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16923,8 +16913,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>17.1</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16961,14 +16956,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45749</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16981,7 +16976,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17013,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45226</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17033,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17070,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45561</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17095,7 +17090,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>16.5</v>
+        <v>2.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17127,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17152,7 +17147,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17189,14 +17184,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45733</v>
+        <v>45598</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17246,14 +17241,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44685</v>
+        <v>45594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17265,8 +17260,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45983.47664351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44655</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44651</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44830</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>45755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44642.51204861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45735.42776620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44910.56230324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44977.49680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45184</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45036</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45275.54040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45013.59376157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45343</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45191.47868055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45120.46274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44368.8812962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45884</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45525.55287037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45576.60320601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>44999</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45076</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45076</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>44623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44938.45767361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44903</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44678</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45041</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44421</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44918</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45576.60469907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45817.54246527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45096</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45210</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45818.35171296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45432</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44511</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45236</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45428</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45918</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>45561</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45923</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>44320</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45924</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45924</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44742.39807870371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45705.56822916667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44902</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45938.5725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45938.58097222223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45938.58679398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45294.62162037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45938.57336805556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>45938.57447916667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45278.34112268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>45803.33516203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45636.48037037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44685</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44945.4825</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44943</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45715</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45954.38760416667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>45297.57143518519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45525.54172453703</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45959.3483449074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44573</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44917.60373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44917.60572916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45880.65108796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45247</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45285</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45239</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44565</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45970.46565972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45968.46606481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45968.48377314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44990</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44263</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45597</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45978.4571412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44918</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45981.64251157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45980.42552083333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45980.43471064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45981.64037037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45982.76739583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45981.79150462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45982.76020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44859</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45630</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44859</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44859</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>46023</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45986.33349537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45986.86888888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45758.54484953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>45993.61269675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44474</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>45056</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45993.60136574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>45109</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>44893</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>45153.56041666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44990</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44993</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>46037.57427083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45995.56089120371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45705</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45755</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45302</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>45237</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45195.46368055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>46002.33396990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44470</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45774.79278935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45053.90454861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44358</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44387</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45194</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44979</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>46013</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44565</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45275.41878472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44942.49956018518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>45076</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45120.45346064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44977.47071759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45096.56784722222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44888.46519675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>45615</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>45236.40959490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45076.50886574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44938</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45053.90079861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45297.57569444444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44830.38984953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>45174</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45552</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44917.58537037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>45110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44671</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45317</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44961</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45069.60496527778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45498.80204861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45764.34591435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45418</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45440</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45181.39582175926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45210</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45243.69512731482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44950.88934027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45281</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44798</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45764.34427083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45735.38707175926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45735.41219907408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44573</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45076</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44608</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44910</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45630</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44967.4024074074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45135</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44496</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44937.4102662037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44938</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45776.42706018518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44744</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45740.43017361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45749</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45226</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45755.48917824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45576.60533564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45598</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45983.47664351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44655</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44651</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>44830</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>45755</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44642.51204861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45735.42776620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44910.56230324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44977.49680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>45184</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45036</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45275.54040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>44496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45013.59376157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45343</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>45191.47868055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>44593</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>44594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45120.46274305556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44368.8812962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>45884</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         <v>45525.55287037037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45576.60320601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>44999</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45076</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45076</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>44623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44476</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>44938.45767361111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44903</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44678</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45041</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44421</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>44407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44918</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45576.60469907407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45817.54246527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45096</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45210</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
         <v>45818.35171296296</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7143,7 +7143,7 @@
         <v>45432</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7200,7 +7200,7 @@
         <v>45754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>44511</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45236</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>45428</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>45175</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45918</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>45561</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>45923</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>44320</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45924</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45924</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44452</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44742.39807870371</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45705.56822916667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>44902</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45938.5725</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>45938.58097222223</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>45938.58679398148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8645,7 +8645,7 @@
         <v>45294.62162037037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>45938.57336805556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>45938.57447916667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>45529</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>45278.34112268518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>45803.33516203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>45636.48037037037</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>44685</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>45733</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9168,7 +9168,7 @@
         <v>44945.4825</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>44943</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>45715</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45954.38760416667</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9401,7 +9401,7 @@
         <v>45297.57143518519</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9458,7 +9458,7 @@
         <v>45525.54172453703</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9515,7 +9515,7 @@
         <v>45959.3483449074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9572,7 +9572,7 @@
         <v>44573</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>44917.60373842593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>44917.60572916667</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>45880.65108796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>45247</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45285</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>45239</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>44565</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>45970.46565972222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45968.46606481481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>45968.48377314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44990</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>44263</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44594</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45597</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>44496</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>45978.4571412037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44918</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>45981.64251157407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>45980.42552083333</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>45980.43471064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>45306</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>45981.64037037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>45982.76739583333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>45981.79150462963</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>45982.76020833333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44859</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44859</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45630</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>44859</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>44859</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>46023</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45986.33349537037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>45986.86888888889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44475</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45191</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45758.54484953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>45993.61269675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>44468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>44474</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>45056</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45993.60136574074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         <v>45109</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12100,7 +12100,7 @@
         <v>44617</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>44893</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>45153.56041666667</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12276,7 +12276,7 @@
         <v>44990</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>44993</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>46037.57427083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45995.56089120371</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45705</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45755</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45623</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45302</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12737,7 +12737,7 @@
         <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>45237</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45195.46368055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>46002.33396990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>44470</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>44651</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45774.79278935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45053.90454861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45072</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>44358</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44387</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45194</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44979</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>46013</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44565</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45275.41878472222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44725</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>44791</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>44942.49956018518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13892,7 +13892,7 @@
         <v>45076</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         <v>45120.45346064815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14011,7 +14011,7 @@
         <v>44977.47071759259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14068,7 +14068,7 @@
         <v>45096.56784722222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>44888.46519675926</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>45615</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45448</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>45236.40959490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45076.50886574074</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45321</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44938</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45053.90079861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45297.57569444444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>44830.38984953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>45174</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14757,7 +14757,7 @@
         <v>45552</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
         <v>45021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14871,7 +14871,7 @@
         <v>44762</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>44917.58537037037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>45110</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>44671</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45317</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44961</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45069.60496527778</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45498.80204861111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>45764.34591435185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45418</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45440</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45181.39582175926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>45051</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45210</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>45243.69512731482</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>44950.88934027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45281</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>44798</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45594</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>45764.34427083333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>45735.38707175926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>45735.41219907408</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44573</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45076</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>44608</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>44594</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>44910</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45630</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>44967.4024074074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45135</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44496</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44937.4102662037</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>44938</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45776.42706018518</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>44744</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45740.43017361111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45749</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45226</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45755.48917824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>45576.60533564815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45598</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45594</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 66243-2021</t>
+          <t>A 24223-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44518</v>
+        <v>44336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1167,651 +1167,651 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 32279-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 66243-2021</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Blomkålssvamp</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 58185-2025</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45983.47664351852</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>4.6</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Z9">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H10" t="n">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 66246-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 24223-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 32279-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45109</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8549-2021</t>
+          <t>A 7821-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44245</v>
+        <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7821-2022</t>
+          <t>A 8549-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44608</v>
+        <v>44245</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4541,14 +4541,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44655</v>
+        <v>44680</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,13 +4560,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4603,14 +4598,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44680</v>
+        <v>44655</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4622,8 +4617,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>44387</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44651</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4850,13 +4850,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4893,14 +4888,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44830</v>
+        <v>44725</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4908,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,14 +4945,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45755</v>
+        <v>44918</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4965,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5002,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45321</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5022,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5059,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5083,8 +5078,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>44979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>8.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>44859</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5235,14 +5235,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45483</v>
+        <v>44859</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5292,14 +5292,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45184</v>
+        <v>44358</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5311,13 +5311,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5354,14 +5349,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45036</v>
+        <v>45432</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5374,7 +5369,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5411,14 +5406,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45306</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5431,7 +5426,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5468,14 +5463,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44496</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5488,7 +5483,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>6.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5525,14 +5520,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5540,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5577,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45343</v>
+        <v>44903</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5597,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5634,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>44476</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5659,7 +5654,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5696,14 +5691,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44937</v>
+        <v>44496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5716,7 +5711,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5753,14 +5748,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44593</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5768,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5810,14 +5805,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44594</v>
+        <v>44475</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5825,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5867,14 +5862,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>44511</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5886,13 +5881,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5919,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45448</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5949,7 +5939,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5986,14 +5976,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45884</v>
+        <v>44407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6006,7 +5996,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6043,14 +6033,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6063,7 +6053,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.3</v>
+        <v>2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6100,14 +6090,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>44617</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6119,8 +6109,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>17.1</v>
+        <v>4.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6157,14 +6152,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44999</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6176,13 +6171,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6209,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45076</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6239,7 +6229,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6276,14 +6266,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45076</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6296,7 +6286,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6333,14 +6323,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44623</v>
+        <v>45041</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6353,7 +6343,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6390,14 +6380,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44476</v>
+        <v>44594</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6410,7 +6400,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6447,14 +6437,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>44421</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6457,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6504,14 +6494,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44903</v>
+        <v>44671</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6514,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6561,14 +6551,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44678</v>
+        <v>45056</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6571,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6618,14 +6608,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45041</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6628,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6675,14 +6665,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44421</v>
+        <v>45594</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6685,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6732,14 +6722,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44407</v>
+        <v>44263</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6742,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6789,14 +6779,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44918</v>
+        <v>44938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6799,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6846,14 +6836,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45561</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6856,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>16.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6903,14 +6893,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6913,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6960,14 +6950,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45096</v>
+        <v>45705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6979,13 +6969,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7022,14 +7007,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45210</v>
+        <v>45552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7042,7 +7027,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7079,14 +7064,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45623</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7099,7 +7084,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7136,14 +7121,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45432</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7156,7 +7141,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7193,14 +7178,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45754</v>
+        <v>45733</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7212,13 +7197,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7255,14 +7235,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44511</v>
+        <v>44685</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7255,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7312,14 +7292,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45236</v>
+        <v>44496</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7312,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7369,14 +7349,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7389,7 +7369,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7426,14 +7406,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45905</v>
+        <v>44999</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7445,8 +7425,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7483,14 +7468,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7503,7 +7488,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7540,14 +7525,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7560,7 +7545,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7597,14 +7582,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7617,7 +7602,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7654,14 +7639,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7674,7 +7659,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7711,14 +7696,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7731,7 +7716,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7768,14 +7753,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45428</v>
+        <v>45905</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7788,7 +7773,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7825,14 +7810,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45175</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7845,7 +7830,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>10.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7882,14 +7867,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45918</v>
+        <v>45096</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7901,8 +7886,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7939,14 +7929,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45561</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7959,7 +7949,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>16.5</v>
+        <v>2.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7996,14 +7986,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8016,7 +8006,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8053,14 +8043,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44320</v>
+        <v>45483</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8063,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.7</v>
+        <v>3.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8110,14 +8100,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8120,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8167,14 +8157,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45924</v>
+        <v>45051</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8187,7 +8177,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8224,14 +8214,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44452</v>
+        <v>45924</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8244,7 +8234,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8281,14 +8271,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45924</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8301,7 +8291,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8338,14 +8328,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>45191</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8358,7 +8348,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8395,14 +8385,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44902</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8415,7 +8405,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8452,14 +8442,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8471,13 +8461,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>0.7</v>
+        <v>7.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8514,14 +8499,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45884</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8533,13 +8518,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8576,14 +8556,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45440</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8595,13 +8575,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8638,14 +8613,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>44945.4825</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8658,7 +8633,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8695,14 +8670,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>44496</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8714,13 +8689,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8757,14 +8727,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8776,13 +8746,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8819,14 +8784,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45529</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8838,8 +8803,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8876,14 +8846,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45237</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8896,7 +8866,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8933,14 +8903,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8952,8 +8922,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8990,14 +8965,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45236</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +8985,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9047,14 +9022,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44685</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9067,7 +9042,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9104,14 +9079,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45733</v>
+        <v>45938.5725</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9123,8 +9098,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9161,14 +9141,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9180,8 +9160,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9218,14 +9203,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44943</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9237,8 +9222,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9275,14 +9265,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45715</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9285,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9332,14 +9322,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45076</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9351,13 +9341,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>10.7</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9394,14 +9379,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>44470</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9414,7 +9399,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9451,14 +9436,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45076</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9471,7 +9456,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>10.4</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9508,14 +9493,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>44468</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9528,7 +9513,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9565,14 +9550,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44573</v>
+        <v>45615</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9585,7 +9570,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9622,14 +9607,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>44452</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9642,7 +9627,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9679,14 +9664,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>44918</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9699,7 +9684,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9736,14 +9721,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9756,7 +9741,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9793,14 +9778,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45247</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9812,8 +9797,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.6</v>
+        <v>10.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9850,14 +9840,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45285</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9869,8 +9859,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9907,14 +9902,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45239</v>
+        <v>45021</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9922,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9964,14 +9959,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44565</v>
+        <v>44961</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9979,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10021,14 +10016,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10036,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10078,14 +10073,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>44623</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10098,7 +10093,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10142,7 +10137,7 @@
         <v>45968.48377314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10192,14 +10187,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44990</v>
+        <v>44938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10212,7 +10207,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10249,14 +10244,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44263</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10269,7 +10264,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10306,14 +10301,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44594</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10326,7 +10321,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10363,14 +10358,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45597</v>
+        <v>44859</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10383,7 +10378,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10420,14 +10415,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44496</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10440,7 +10435,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10477,14 +10472,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44859</v>
+        <v>44937</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10497,7 +10492,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10534,14 +10529,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>44990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10553,13 +10548,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>6.7</v>
+        <v>3.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10596,14 +10586,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44918</v>
+        <v>45428</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10616,7 +10606,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10653,14 +10643,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45174</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10672,13 +10662,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G169" t="n">
-        <v>15.9</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10715,14 +10700,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10734,8 +10719,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>6.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10772,14 +10762,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10792,7 +10782,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10829,14 +10819,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45306</v>
+        <v>45302</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10849,7 +10839,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10886,14 +10876,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45418</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10905,13 +10895,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10948,14 +10933,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10968,7 +10953,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11005,14 +10990,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11025,7 +11010,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11062,14 +11047,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>44993</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11081,8 +11066,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.5</v>
+        <v>18.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11119,14 +11109,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44859</v>
+        <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11139,7 +11129,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11176,14 +11166,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44859</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11195,8 +11185,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11233,14 +11228,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45630</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11253,7 +11248,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11290,14 +11285,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44859</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11309,8 +11304,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>15.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11347,14 +11347,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44859</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11404,14 +11404,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46023</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11461,14 +11461,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45754</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11523,14 +11523,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11542,8 +11542,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11580,14 +11585,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44475</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11600,7 +11605,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11637,14 +11642,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45191</v>
+        <v>44594</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11657,7 +11662,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11694,14 +11699,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11713,8 +11718,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11751,14 +11761,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>45630</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11771,7 +11781,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11808,14 +11818,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44468</v>
+        <v>46023</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11828,7 +11838,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11865,14 +11875,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44474</v>
+        <v>45036</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11885,7 +11895,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11922,14 +11932,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45056</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11942,7 +11952,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11979,14 +11989,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>44474</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11999,7 +12009,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12036,14 +12046,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45109</v>
+        <v>44593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12056,7 +12066,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12093,14 +12103,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44617</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12112,13 +12122,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12155,14 +12160,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44893</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12175,7 +12180,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12212,14 +12217,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12232,7 +12237,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.3</v>
+        <v>5.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12269,14 +12274,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44990</v>
+        <v>44651</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12288,8 +12293,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12326,14 +12336,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44993</v>
+        <v>45076</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12345,13 +12355,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>18.6</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12395,7 +12400,7 @@
         <v>46037.57427083333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12445,14 +12450,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>44594</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12465,7 +12470,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12502,14 +12507,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45705</v>
+        <v>44565</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12522,7 +12527,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12559,14 +12564,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45755</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12579,7 +12584,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12616,14 +12621,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45623</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12636,7 +12641,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12673,14 +12678,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45302</v>
+        <v>45239</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12693,7 +12698,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12730,14 +12735,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12750,7 +12755,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12787,14 +12792,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45237</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12806,8 +12811,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12844,14 +12854,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12863,13 +12873,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12906,14 +12911,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>44651</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12925,8 +12930,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12963,14 +12973,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44470</v>
+        <v>45109</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12983,7 +12993,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13020,14 +13030,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44651</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13039,13 +13049,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13082,14 +13087,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13101,8 +13106,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13139,14 +13149,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>44762</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13158,8 +13168,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13196,14 +13211,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45072</v>
+        <v>45247</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13215,13 +13230,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13258,14 +13268,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44358</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13278,7 +13288,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13315,14 +13325,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44387</v>
+        <v>44791</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13335,7 +13345,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13379,7 +13389,7 @@
         <v>45194</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13429,14 +13439,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46013</v>
+        <v>45135</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13448,8 +13458,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13486,14 +13501,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44979</v>
+        <v>45755</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13506,7 +13521,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>8.5</v>
+        <v>0.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13543,14 +13558,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46013</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13563,7 +13578,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13600,14 +13615,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44565</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13620,7 +13635,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>13.4</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13657,14 +13672,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>45755</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13677,7 +13692,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13714,14 +13729,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44725</v>
+        <v>45715</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13734,7 +13749,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13771,14 +13786,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44791</v>
+        <v>45317</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13791,7 +13806,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>8.800000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13828,14 +13843,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13848,7 +13863,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>9.1</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13885,14 +13900,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45076</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13905,7 +13920,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13942,14 +13957,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>45210</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13961,13 +13976,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14004,14 +14014,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14023,8 +14033,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14061,14 +14076,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>46013</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14080,13 +14095,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14123,14 +14133,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>44678</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14143,7 +14153,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14180,14 +14190,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45615</v>
+        <v>46013</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14200,7 +14210,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8.9</v>
+        <v>2.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14237,14 +14247,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45448</v>
+        <v>44608</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14257,7 +14267,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14294,14 +14304,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14314,7 +14324,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14351,14 +14361,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14371,7 +14381,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14408,14 +14418,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45321</v>
+        <v>44990</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14428,7 +14438,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14465,14 +14475,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44938</v>
+        <v>45210</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14485,7 +14495,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14522,14 +14532,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>44910</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14541,8 +14551,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14579,14 +14594,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14599,7 +14614,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14636,14 +14651,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14656,7 +14671,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14693,14 +14708,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45174</v>
+        <v>44798</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14713,7 +14728,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14750,14 +14765,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45552</v>
+        <v>45343</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14770,7 +14785,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14807,14 +14822,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45021</v>
+        <v>45072</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14826,8 +14841,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14864,14 +14884,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44762</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14883,13 +14903,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>10.5</v>
+        <v>9.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14926,14 +14941,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14946,7 +14961,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14983,14 +14998,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45110</v>
+        <v>44565</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15003,7 +15018,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.3</v>
+        <v>13.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15040,14 +15055,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44671</v>
+        <v>44573</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15060,7 +15075,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15097,14 +15112,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45317</v>
+        <v>44859</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15117,7 +15132,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15154,14 +15169,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44961</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15174,7 +15189,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15211,14 +15226,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45597</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15231,7 +15246,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15268,14 +15283,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15288,7 +15303,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15325,14 +15340,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>45110</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15344,13 +15359,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15387,14 +15397,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45418</v>
+        <v>45175</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15407,7 +15417,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15444,14 +15454,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45440</v>
+        <v>45281</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15464,7 +15474,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15501,14 +15511,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>44830</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15521,7 +15531,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15558,14 +15568,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45051</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15578,7 +15588,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15615,14 +15625,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45210</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15635,7 +15645,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15672,14 +15682,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15692,7 +15702,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15729,14 +15739,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15749,7 +15759,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15786,14 +15796,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45281</v>
+        <v>44859</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15806,7 +15816,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15843,14 +15853,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44798</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15863,7 +15873,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15900,14 +15910,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45594</v>
+        <v>45184</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15919,8 +15929,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15957,14 +15972,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44893</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15976,13 +15991,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16019,14 +16029,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16038,13 +16048,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16081,14 +16086,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45630</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16100,13 +16105,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16143,14 +16143,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44573</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16200,14 +16200,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45076</v>
+        <v>44320</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16257,14 +16257,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44608</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16314,14 +16314,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44594</v>
+        <v>45285</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16371,14 +16371,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44910</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16390,13 +16390,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16433,14 +16428,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45630</v>
+        <v>44902</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16453,7 +16448,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16490,14 +16485,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>44943</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16510,7 +16505,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16547,14 +16542,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45135</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16568,11 +16563,11 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16609,14 +16604,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44496</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16628,8 +16623,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16666,14 +16666,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16723,14 +16723,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44938</v>
+        <v>45749</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>6.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16780,14 +16780,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16799,8 +16799,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16844,7 +16849,7 @@
         <v>44744</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16894,14 +16899,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45226</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16913,13 +16918,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16956,14 +16956,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45749</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17013,14 +17013,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45226</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17070,14 +17070,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>45598</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17127,14 +17127,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45594</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,8 +17146,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G281" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17184,14 +17189,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45598</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17204,7 +17209,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.8</v>
+        <v>17.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17241,14 +17246,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45594</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17260,13 +17265,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G283" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24223-2021</t>
+          <t>A 24301-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1132,8 +1132,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1142,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1157,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1167,745 +1172,740 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 66243-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 58185-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45983.47664351852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 24223-2021</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 32279-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45109</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>11.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Barkticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 66243-2021</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 66246-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 58185-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45983.47664351852</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24301-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44337</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Järpe</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2142,14 +2142,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 7821-2022</t>
+          <t>A 8549-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44608</v>
+        <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8549-2021</t>
+          <t>A 7821-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44245</v>
+        <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44608</v>
+        <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44525</v>
+        <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3795,14 +3795,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44323</v>
+        <v>44277</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3814,13 +3814,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3857,14 +3852,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44277</v>
+        <v>44323</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3876,8 +3871,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44680</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44655</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44387</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>44594</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4888,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44725</v>
+        <v>44651</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4907,8 +4907,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44918</v>
+        <v>44496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4970,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5002,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45321</v>
+        <v>45594</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5059,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>45884</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5078,13 +5083,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44979</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5140,8 +5140,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5183,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44859</v>
+        <v>44830</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5203,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5235,14 +5240,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44859</v>
+        <v>45755</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5260,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5292,14 +5297,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44358</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5317,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5349,14 +5354,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45432</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5368,8 +5373,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5406,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45306</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,8 +5435,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5463,14 +5478,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>44573</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5498,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5520,14 +5535,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45529</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5555,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5577,14 +5592,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44903</v>
+        <v>45076</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5612,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5634,14 +5649,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44476</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5669,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5691,14 +5706,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44496</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5726,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5748,14 +5763,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>44608</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5768,7 +5783,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5805,14 +5820,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44475</v>
+        <v>45483</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5825,7 +5840,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5862,14 +5877,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44511</v>
+        <v>44594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5882,7 +5897,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5919,14 +5934,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45448</v>
+        <v>45184</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5938,8 +5953,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5976,14 +5996,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44407</v>
+        <v>45036</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5996,7 +6016,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6033,14 +6053,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>44910</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6052,8 +6072,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6090,14 +6115,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44617</v>
+        <v>45630</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6109,13 +6134,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6152,14 +6172,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6192,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6209,14 +6229,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45135</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6228,8 +6248,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6266,14 +6291,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>45905</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6311,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6323,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45041</v>
+        <v>44496</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6343,7 +6368,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6380,14 +6405,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44594</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6400,7 +6425,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6437,14 +6462,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44421</v>
+        <v>45905</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6457,7 +6482,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6494,14 +6519,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44671</v>
+        <v>45905</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6514,7 +6539,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6551,14 +6576,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45056</v>
+        <v>45343</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6571,7 +6596,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6608,14 +6633,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45905</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6628,7 +6653,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6665,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45594</v>
+        <v>45905</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6685,7 +6710,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6722,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44263</v>
+        <v>45905</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6742,7 +6767,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6779,14 +6804,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44938</v>
+        <v>45905</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6799,7 +6824,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6836,14 +6861,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45561</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6856,7 +6881,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>16.5</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6893,14 +6918,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>44496</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6913,7 +6938,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6950,14 +6975,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45705</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6970,7 +6995,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7007,14 +7032,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45552</v>
+        <v>44938</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7027,7 +7052,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7064,14 +7089,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45623</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7084,7 +7109,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7121,14 +7146,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>44937</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7141,7 +7166,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7178,14 +7203,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45733</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7198,7 +7223,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7235,14 +7260,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44685</v>
+        <v>44593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7255,7 +7280,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7292,14 +7317,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44496</v>
+        <v>44744</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7312,7 +7337,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7349,14 +7374,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45905</v>
+        <v>44594</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,7 +7394,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7406,14 +7431,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44999</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7427,11 +7452,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7468,14 +7493,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45905</v>
+        <v>45749</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7513,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7525,14 +7550,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45905</v>
+        <v>45226</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7582,14 +7607,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45905</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7601,8 +7626,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7639,14 +7669,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45905</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7659,7 +7689,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7696,14 +7726,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45905</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7716,7 +7746,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7753,14 +7783,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45905</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7773,7 +7803,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7810,14 +7840,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7830,7 +7860,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>10.4</v>
+        <v>6.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7867,14 +7897,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45096</v>
+        <v>44999</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7888,11 +7918,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7929,14 +7959,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45598</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7979,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7986,14 +8016,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918</v>
+        <v>45076</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8036,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8043,14 +8073,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45483</v>
+        <v>45076</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8093,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8100,14 +8130,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45923</v>
+        <v>44623</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8150,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8157,14 +8187,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45051</v>
+        <v>44476</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8207,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8214,14 +8244,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45924</v>
+        <v>45594</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8233,8 +8263,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8271,14 +8306,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45924</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8326,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8328,14 +8363,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45191</v>
+        <v>44903</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8383,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8385,14 +8420,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>44678</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8440,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8442,14 +8477,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8497,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7.5</v>
+        <v>17.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8499,14 +8534,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45884</v>
+        <v>45041</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8554,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8556,14 +8591,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45440</v>
+        <v>44421</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8613,14 +8648,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45918</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8668,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8670,14 +8705,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44496</v>
+        <v>44407</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8690,7 +8725,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8727,14 +8762,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>44918</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8747,7 +8782,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8784,14 +8819,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>45923</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8803,13 +8838,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8846,14 +8876,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45237</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8866,7 +8896,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8903,14 +8933,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45096</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8928,7 +8958,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8965,14 +8995,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45236</v>
+        <v>45210</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9022,14 +9052,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>45924</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9042,7 +9072,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9079,14 +9109,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45924</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9098,13 +9128,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9141,14 +9166,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45432</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9160,13 +9185,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9203,14 +9223,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45754</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9228,7 +9248,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9265,14 +9285,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>44511</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9285,7 +9305,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9322,14 +9342,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45076</v>
+        <v>45236</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9342,7 +9362,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9379,14 +9399,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44470</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9399,7 +9419,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9436,14 +9456,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45076</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9456,7 +9476,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9493,14 +9513,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44468</v>
+        <v>45428</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9513,7 +9533,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9550,14 +9570,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45615</v>
+        <v>45175</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9570,7 +9590,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9607,14 +9627,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44452</v>
+        <v>45561</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9627,7 +9647,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.8</v>
+        <v>16.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9664,14 +9684,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44918</v>
+        <v>44320</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9684,7 +9704,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9721,14 +9741,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>44452</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9741,7 +9761,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9778,14 +9798,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9797,13 +9817,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>10.7</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9840,14 +9855,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45938.5725</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9865,7 +9880,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9902,14 +9917,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45021</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9921,8 +9936,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9959,14 +9979,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44961</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9978,8 +9998,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10016,14 +10041,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10036,7 +10061,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10073,14 +10098,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44623</v>
+        <v>44902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10093,7 +10118,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10130,14 +10155,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10150,7 +10175,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10187,14 +10212,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44938</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10206,8 +10231,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10244,14 +10274,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10264,7 +10294,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10301,14 +10331,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>44685</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10321,7 +10351,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10358,14 +10388,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44859</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10377,8 +10407,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10415,14 +10450,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45733</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10435,7 +10470,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10472,14 +10507,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44937</v>
+        <v>45529</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10492,7 +10527,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>6.3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10529,14 +10564,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44990</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10549,7 +10584,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10586,14 +10621,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45428</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10606,7 +10641,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10643,14 +10678,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45174</v>
+        <v>44945.4825</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10663,7 +10698,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10700,14 +10735,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>44943</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10719,13 +10754,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>6.7</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10762,14 +10792,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10782,7 +10812,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>10.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10819,14 +10849,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45302</v>
+        <v>45715</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10839,7 +10869,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10876,14 +10906,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45418</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10896,7 +10926,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10933,14 +10963,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10953,7 +10983,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10990,14 +11020,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>44573</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11010,7 +11040,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11047,14 +11077,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44993</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11066,13 +11096,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>18.6</v>
+        <v>0.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11109,14 +11134,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44573</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11129,7 +11154,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11166,14 +11191,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45247</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11185,13 +11210,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11228,14 +11248,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11247,8 +11267,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>10.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11285,14 +11310,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45285</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11304,13 +11329,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11347,14 +11367,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>45239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11367,7 +11387,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11404,14 +11424,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>44565</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11424,7 +11444,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11461,14 +11481,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45754</v>
+        <v>44263</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11480,13 +11500,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11523,14 +11538,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>44990</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11542,13 +11557,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11585,14 +11595,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11615,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11642,14 +11652,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44594</v>
+        <v>45597</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11672,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11699,14 +11709,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>44859</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11718,13 +11728,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>8.199999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11761,14 +11766,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45630</v>
+        <v>44918</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11781,7 +11786,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11818,14 +11823,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46023</v>
+        <v>45306</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11838,7 +11843,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11875,14 +11880,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45036</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11895,7 +11900,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11932,14 +11937,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11952,7 +11957,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11989,14 +11994,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44474</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12009,7 +12014,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12046,14 +12051,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44593</v>
+        <v>44859</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12066,7 +12071,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12103,14 +12108,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>44859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12123,7 +12128,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12160,14 +12165,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>45630</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12180,7 +12185,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12217,14 +12222,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>44859</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12237,7 +12242,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12274,14 +12279,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44651</v>
+        <v>44859</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12293,13 +12298,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12336,14 +12336,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45076</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12355,8 +12355,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12393,14 +12398,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12412,8 +12417,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.2</v>
+        <v>15.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12450,14 +12460,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44594</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12470,7 +12480,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12507,14 +12517,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44565</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12527,7 +12537,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12564,14 +12574,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12583,8 +12593,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12621,14 +12636,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12641,7 +12656,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12678,14 +12693,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45239</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12698,7 +12713,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12735,14 +12750,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12755,7 +12770,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12792,14 +12807,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>44475</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12811,13 +12826,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12854,14 +12864,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45191</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12874,7 +12884,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12911,14 +12921,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44651</v>
+        <v>46023</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12930,13 +12940,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12973,14 +12978,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45109</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12992,8 +12997,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>2.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13030,14 +13040,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13050,7 +13060,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13087,14 +13097,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13106,13 +13116,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13149,14 +13154,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44762</v>
+        <v>44468</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13168,13 +13173,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13211,14 +13211,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45247</v>
+        <v>45056</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13268,14 +13268,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>45109</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13325,14 +13325,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44791</v>
+        <v>44617</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13344,8 +13344,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13382,14 +13387,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45194</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13402,7 +13407,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13439,14 +13444,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45135</v>
+        <v>44474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13458,13 +13463,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13501,14 +13501,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45755</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13558,14 +13558,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>44893</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13615,14 +13615,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13672,14 +13672,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45755</v>
+        <v>44990</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13729,14 +13729,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45715</v>
+        <v>44993</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13748,8 +13748,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.2</v>
+        <v>18.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13786,14 +13791,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45317</v>
+        <v>45705</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13806,7 +13811,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13843,14 +13848,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45755</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13900,14 +13905,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45623</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13920,7 +13925,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13957,14 +13962,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45210</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13977,7 +13982,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14014,14 +14019,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14033,13 +14038,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14076,14 +14076,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46013</v>
+        <v>45302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14133,14 +14133,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44678</v>
+        <v>45237</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14190,14 +14190,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46013</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14209,8 +14209,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14247,14 +14252,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44608</v>
+        <v>44470</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14267,7 +14272,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14304,14 +14309,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>44651</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14323,8 +14328,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14361,14 +14371,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14381,7 +14391,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14418,14 +14428,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44990</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14438,7 +14448,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14475,14 +14485,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45210</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14495,7 +14505,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.7</v>
+        <v>7.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14532,14 +14542,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44910</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14551,13 +14561,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14594,14 +14599,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>45072</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14613,8 +14618,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14651,14 +14661,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>44358</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14671,7 +14681,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14708,14 +14718,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44798</v>
+        <v>44387</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14728,7 +14738,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14765,14 +14775,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45343</v>
+        <v>45194</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14785,7 +14795,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14822,14 +14832,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45072</v>
+        <v>44979</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14841,13 +14851,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14884,14 +14889,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>44565</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14904,7 +14909,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>9.1</v>
+        <v>13.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14941,14 +14946,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14961,7 +14966,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14998,14 +15003,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44565</v>
+        <v>46013</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15018,7 +15023,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>13.4</v>
+        <v>2.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15055,14 +15060,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44573</v>
+        <v>44725</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15075,7 +15080,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15112,14 +15117,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44859</v>
+        <v>44791</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15132,7 +15137,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15169,14 +15174,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15189,7 +15194,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>3.8</v>
+        <v>9.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15226,14 +15231,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45597</v>
+        <v>45076</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15246,7 +15251,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15283,14 +15288,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45076</v>
+        <v>46013</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15303,7 +15308,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15340,14 +15345,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45110</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15359,8 +15364,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15397,14 +15407,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45175</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15417,7 +15427,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15454,14 +15464,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45281</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15473,8 +15483,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15511,14 +15526,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44830</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15531,7 +15546,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15568,14 +15583,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45615</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15588,7 +15603,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>8.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15625,14 +15640,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45448</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15645,7 +15660,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15682,14 +15697,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15702,7 +15717,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15739,14 +15754,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15759,7 +15774,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15796,14 +15811,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44859</v>
+        <v>45321</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15816,7 +15831,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15853,14 +15868,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>44938</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15873,7 +15888,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15910,14 +15925,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45184</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15929,13 +15944,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G260" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15972,14 +15982,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44893</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15992,7 +16002,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16029,14 +16039,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16049,7 +16059,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16086,14 +16096,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45630</v>
+        <v>45174</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16143,14 +16153,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45552</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16163,7 +16173,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16200,14 +16210,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44320</v>
+        <v>45021</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16220,7 +16230,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>7.7</v>
+        <v>0.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16257,14 +16267,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>44762</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16276,8 +16286,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>0.6</v>
+        <v>10.5</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16314,14 +16329,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45285</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16334,7 +16349,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16371,14 +16386,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45110</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16391,7 +16406,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16428,14 +16443,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44902</v>
+        <v>44671</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16448,7 +16463,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16485,14 +16500,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44943</v>
+        <v>45317</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16505,7 +16520,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16542,14 +16557,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44961</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16561,13 +16576,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16604,14 +16614,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16623,13 +16633,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16666,14 +16671,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16691,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16723,14 +16728,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45749</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16742,8 +16747,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>6.7</v>
+        <v>3.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16780,14 +16790,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45418</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16799,13 +16809,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16842,14 +16847,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44744</v>
+        <v>45440</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16862,7 +16867,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16899,14 +16904,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45226</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16919,7 +16924,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16956,14 +16961,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45051</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16976,7 +16981,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17013,14 +17018,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>45210</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17033,7 +17038,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17070,14 +17075,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45598</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17090,7 +17095,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17127,14 +17132,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45594</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,13 +17151,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17189,14 +17189,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45281</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>17.1</v>
+        <v>0.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17246,14 +17246,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>44798</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24301-2021</t>
+          <t>A 24223-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1132,13 +1132,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1147,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1162,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1172,740 +1167,745 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 32279-2023</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 66243-2021</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 24301-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Järpe</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 66243-2021</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 58185-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45983.47664351852</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>4.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 66246-2021</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 24223-2021</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 32279-2023</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45109</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44525</v>
+        <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44608</v>
+        <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49267-2021</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44454</v>
+        <v>44323</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2959,8 +2959,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +3002,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47172-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44446</v>
+        <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3017,7 +3022,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3059,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58031-2021</t>
+          <t>A 18721-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44487.4566550926</v>
+        <v>44307</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3079,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>12.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3118,7 +3123,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,14 +3173,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41920-2021</t>
+          <t>A 55645-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44425</v>
+        <v>44888.46758101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3193,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3225,14 +3230,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51865-2021</t>
+          <t>A 7742-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44462</v>
+        <v>44608</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3250,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3282,14 +3287,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43868-2021</t>
+          <t>A 64406-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44434</v>
+        <v>44511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3307,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3339,14 +3344,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36012-2021</t>
+          <t>A 49267-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44389</v>
+        <v>44454</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3364,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3396,14 +3401,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36009-2021</t>
+          <t>A 42161-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44389</v>
+        <v>44830</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3421,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3453,14 +3458,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18721-2021</t>
+          <t>A 41920-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44307</v>
+        <v>44425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3478,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>12.4</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3510,14 +3515,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7742-2022</t>
+          <t>A 11326-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44608</v>
+        <v>44629</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3535,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>10.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3567,14 +3572,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64406-2021</t>
+          <t>A 51891-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44511</v>
+        <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3592,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3624,14 +3629,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 42161-2022</t>
+          <t>A 47172-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44830</v>
+        <v>44446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3649,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3681,14 +3686,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51891-2022</t>
+          <t>A 29152-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44867</v>
+        <v>44358.64910879629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3706,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3738,14 +3743,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29152-2021</t>
+          <t>A 31297-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44358.64910879629</v>
+        <v>44368</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3763,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3795,14 +3800,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 31312-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44277</v>
+        <v>44368.90224537037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3820,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3852,14 +3857,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 11372-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44323</v>
+        <v>44263</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3871,13 +3876,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55645-2022</t>
+          <t>A 57032-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44888.46758101852</v>
+        <v>44482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11326-2022</t>
+          <t>A 29366-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44629</v>
+        <v>44752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.4</v>
+        <v>2.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4028,14 +4028,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31297-2021</t>
+          <t>A 58031-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44368</v>
+        <v>44487.4566550926</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31312-2021</t>
+          <t>A 26244-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44368.90224537037</v>
+        <v>44735.48247685185</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4142,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11372-2021</t>
+          <t>A 53384-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44263</v>
+        <v>44879.41210648148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4199,14 +4199,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29366-2022</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44752</v>
+        <v>44680</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26244-2022</t>
+          <t>A 15067-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44735.48247685185</v>
+        <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4313,14 +4313,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53384-2022</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44879.41210648148</v>
+        <v>44655</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,8 +4332,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4370,14 +4375,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15067-2021</t>
+          <t>A 56633-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44281</v>
+        <v>44480.85344907407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4395,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>11.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4427,14 +4432,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56633-2021</t>
+          <t>A 12856-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44480.85344907407</v>
+        <v>44642.49333333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4447,7 +4452,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4484,14 +4489,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57032-2021</t>
+          <t>A 51865-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44482</v>
+        <v>44462</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4509,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4541,14 +4546,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44680</v>
+        <v>45306</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4566,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4598,14 +4603,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44655</v>
+        <v>44470</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,13 +4622,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12856-2022</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44642.49333333333</v>
+        <v>45076</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44594</v>
+        <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4888,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44651</v>
+        <v>44387</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4907,13 +4907,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,14 +4945,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44496</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4965,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5002,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45594</v>
+        <v>45615</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5022,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>8.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5059,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45884</v>
+        <v>45529</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5079,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>6.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5116,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44903</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5140,13 +5135,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5183,14 +5173,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44830</v>
+        <v>44476</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5203,7 +5193,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5240,14 +5230,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45755</v>
+        <v>44452</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5260,7 +5250,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5297,14 +5287,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>44496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5317,7 +5307,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5354,14 +5344,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44918</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5373,13 +5363,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5416,14 +5401,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>44725</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5435,13 +5420,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5478,14 +5458,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44573</v>
+        <v>44475</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5498,7 +5478,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5535,14 +5515,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5555,7 +5535,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5592,14 +5572,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45076</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5612,7 +5592,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5649,14 +5629,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 43868-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5669,7 +5649,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5706,14 +5686,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 36012-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>44389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5726,7 +5706,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5763,14 +5743,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44608</v>
+        <v>44511</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5783,7 +5763,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5820,14 +5800,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45483</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5839,8 +5819,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5877,14 +5862,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44594</v>
+        <v>45021</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5897,7 +5882,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5934,14 +5919,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 36009-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45184</v>
+        <v>44389</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5953,13 +5938,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5996,14 +5976,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45036</v>
+        <v>44961</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6016,7 +5996,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6053,14 +6033,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44910</v>
+        <v>45448</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6072,13 +6052,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6115,14 +6090,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45630</v>
+        <v>44918</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6135,7 +6110,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6172,14 +6147,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>45321</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6192,7 +6167,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6229,14 +6204,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45135</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6250,11 +6225,11 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6291,14 +6266,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45905</v>
+        <v>44623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6311,7 +6286,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6323,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44496</v>
+        <v>44407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6368,7 +6343,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6405,14 +6380,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>44938</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6425,7 +6400,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6462,14 +6437,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45905</v>
+        <v>44979</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6482,7 +6457,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6519,14 +6494,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6539,7 +6514,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6576,14 +6551,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45343</v>
+        <v>44859</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6596,7 +6571,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6633,14 +6608,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45905</v>
+        <v>44859</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6628,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6690,14 +6665,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45905</v>
+        <v>44859</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6710,7 +6685,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6747,14 +6722,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905</v>
+        <v>44358</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6742,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6804,14 +6779,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45905</v>
+        <v>44617</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6823,8 +6798,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6861,14 +6841,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>44937</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,7 +6861,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6918,14 +6898,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44496</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6938,7 +6918,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6975,14 +6955,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +6975,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7032,14 +7012,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44938</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7052,7 +7032,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7089,14 +7069,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44990</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7109,7 +7089,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7146,14 +7126,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44937</v>
+        <v>45428</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7166,7 +7146,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7203,14 +7183,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45041</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7223,7 +7203,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7260,14 +7240,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44593</v>
+        <v>45432</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7280,7 +7260,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7317,14 +7297,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44744</v>
+        <v>44421</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7337,7 +7317,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7374,14 +7354,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44594</v>
+        <v>44671</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7374,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7431,14 +7411,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45174</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7450,13 +7430,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7493,14 +7468,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45749</v>
+        <v>45056</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7513,7 +7488,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7550,14 +7525,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45226</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7570,7 +7545,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7607,14 +7582,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45594</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7626,13 +7601,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7669,14 +7639,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>44938</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7689,7 +7659,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7726,14 +7696,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7746,7 +7716,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7783,14 +7753,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45302</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7803,7 +7773,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7840,14 +7810,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>45418</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7860,7 +7830,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7897,14 +7867,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44999</v>
+        <v>44993</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7918,11 +7888,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>18.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7959,14 +7929,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45598</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7979,7 +7949,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8016,14 +7986,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45076</v>
+        <v>45705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8036,7 +8006,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8073,14 +8043,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45076</v>
+        <v>44573</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8093,7 +8063,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8130,14 +8100,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44623</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8150,7 +8120,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8187,14 +8157,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44476</v>
+        <v>45552</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8207,7 +8177,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8244,14 +8214,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45594</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8263,13 +8233,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8306,14 +8271,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8326,7 +8291,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8363,14 +8328,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44903</v>
+        <v>45343</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8383,7 +8348,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8420,14 +8385,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44678</v>
+        <v>45754</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8439,8 +8404,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8477,14 +8447,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45623</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8497,7 +8467,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>17.1</v>
+        <v>1.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8534,14 +8504,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45041</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8553,8 +8523,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8591,14 +8566,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44421</v>
+        <v>44594</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8611,7 +8586,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8648,14 +8623,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45918</v>
+        <v>45072</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8667,8 +8642,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8705,14 +8685,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44407</v>
+        <v>45630</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8725,7 +8705,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8762,14 +8742,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44918</v>
+        <v>45036</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8782,7 +8762,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8819,14 +8799,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8839,7 +8819,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.5</v>
+        <v>9.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8876,14 +8856,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8896,7 +8876,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8933,14 +8913,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45096</v>
+        <v>44565</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8952,13 +8932,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>13.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8995,14 +8970,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45210</v>
+        <v>44573</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9015,7 +8990,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9052,14 +9027,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45924</v>
+        <v>45561</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9072,7 +9047,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.1</v>
+        <v>16.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9109,14 +9084,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45924</v>
+        <v>44496</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9129,7 +9104,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9166,14 +9141,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45432</v>
+        <v>44593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9186,7 +9161,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9223,14 +9198,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45754</v>
+        <v>44999</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9244,11 +9219,11 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9285,14 +9260,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44511</v>
+        <v>44859</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9305,7 +9280,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9342,14 +9317,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45236</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9362,7 +9337,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9399,14 +9374,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9419,7 +9394,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9456,14 +9431,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>44651</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9475,8 +9450,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9513,14 +9493,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45428</v>
+        <v>45076</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9533,7 +9513,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9570,14 +9550,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45175</v>
+        <v>44594</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9590,7 +9570,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9627,14 +9607,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45561</v>
+        <v>44565</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9647,7 +9627,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>16.5</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9684,14 +9664,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44320</v>
+        <v>45597</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9704,7 +9684,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>7.7</v>
+        <v>4.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9741,14 +9721,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44452</v>
+        <v>45076</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9761,7 +9741,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9798,14 +9778,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9818,7 +9798,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9855,14 +9835,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9874,13 +9854,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9917,14 +9892,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45110</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9936,13 +9911,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9979,14 +9949,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9998,13 +9968,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10041,14 +10006,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10060,8 +10025,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10098,14 +10068,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44902</v>
+        <v>45175</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10118,7 +10088,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10155,14 +10125,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45281</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10175,7 +10145,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10212,14 +10182,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>44830</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10231,13 +10201,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10274,14 +10239,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>44651</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10293,8 +10258,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10331,14 +10301,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44685</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10351,7 +10321,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10388,14 +10358,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10407,13 +10377,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10450,14 +10415,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45733</v>
+        <v>45109</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10470,7 +10435,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10507,14 +10472,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45529</v>
+        <v>45733</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10527,7 +10492,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10564,14 +10529,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45096</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10583,8 +10548,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10621,14 +10591,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10640,8 +10610,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10678,14 +10653,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44945.4825</v>
+        <v>44685</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10698,7 +10673,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10735,14 +10710,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44943</v>
+        <v>44762</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10754,8 +10729,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>10.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10792,14 +10772,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45247</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10812,7 +10792,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>10.4</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10849,14 +10829,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45715</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10869,7 +10849,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10906,14 +10886,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10926,7 +10906,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10963,14 +10943,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,7 +10963,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11020,14 +11000,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44573</v>
+        <v>44791</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11040,7 +11020,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11077,14 +11057,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11097,7 +11077,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11134,14 +11114,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45483</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11154,7 +11134,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11191,14 +11171,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45247</v>
+        <v>45194</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11211,7 +11191,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11248,14 +11228,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45135</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11269,11 +11249,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>10.7</v>
+        <v>2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11310,14 +11290,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45285</v>
+        <v>45755</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11330,7 +11310,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11367,14 +11347,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45239</v>
+        <v>45051</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11387,7 +11367,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11424,14 +11404,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44565</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11444,7 +11424,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11481,14 +11461,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44263</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11501,7 +11481,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11538,14 +11518,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44990</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11595,14 +11575,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45755</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11615,7 +11595,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11652,14 +11632,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45597</v>
+        <v>45715</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11672,7 +11652,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11709,14 +11689,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44859</v>
+        <v>45191</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11729,7 +11709,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11766,14 +11746,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44918</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11786,7 +11766,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11823,14 +11803,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45306</v>
+        <v>45317</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11843,7 +11823,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11880,14 +11860,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11900,7 +11880,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11937,14 +11917,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11957,7 +11937,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11994,14 +11974,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12014,7 +11994,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12051,14 +12031,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44859</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12071,7 +12051,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12108,14 +12088,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44859</v>
+        <v>45210</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12128,7 +12108,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12165,14 +12145,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45630</v>
+        <v>45440</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12185,7 +12165,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12222,14 +12202,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44859</v>
+        <v>44945.4825</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12242,7 +12222,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12279,14 +12259,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44859</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12298,8 +12278,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12336,14 +12321,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>44678</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12355,13 +12340,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12398,14 +12378,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>44859</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12417,13 +12397,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>15.9</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12460,14 +12435,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12480,7 +12455,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12517,14 +12492,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>44608</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12574,14 +12549,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12593,13 +12568,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12636,14 +12606,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>45237</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12656,7 +12626,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12693,14 +12663,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45236</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12713,7 +12683,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12750,14 +12720,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12770,7 +12740,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12807,14 +12777,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44475</v>
+        <v>45884</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12827,7 +12797,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12864,14 +12834,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45191</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12921,14 +12891,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46023</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12941,7 +12911,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12978,14 +12948,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>44496</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,13 +12967,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13040,14 +13005,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>45076</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13060,7 +13025,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13097,14 +13062,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>44990</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13154,14 +13119,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44468</v>
+        <v>44594</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13174,7 +13139,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13211,14 +13176,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45056</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13231,7 +13196,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13268,14 +13233,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45109</v>
+        <v>45210</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13288,7 +13253,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>5.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13325,14 +13290,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44617</v>
+        <v>44263</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13344,13 +13309,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13387,14 +13347,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>44910</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13406,8 +13366,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13444,14 +13409,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44474</v>
+        <v>45184</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13463,8 +13428,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13501,14 +13471,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>44893</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13521,7 +13491,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13558,14 +13528,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44893</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13578,7 +13548,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13615,14 +13585,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13635,7 +13605,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13672,14 +13642,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44990</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13692,7 +13662,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13729,14 +13699,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44993</v>
+        <v>44798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13748,13 +13718,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G222" t="n">
-        <v>18.6</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13791,14 +13756,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45705</v>
+        <v>45630</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13811,7 +13776,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13848,14 +13813,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45755</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13868,7 +13833,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13905,14 +13870,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45623</v>
+        <v>44320</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13925,7 +13890,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13962,14 +13927,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13982,7 +13947,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14019,14 +13984,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45905</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14039,7 +14004,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14076,14 +14041,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45302</v>
+        <v>45905</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14096,7 +14061,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14133,14 +14098,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45237</v>
+        <v>45905</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14153,7 +14118,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14190,14 +14155,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45905</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14209,13 +14174,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14252,14 +14212,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44470</v>
+        <v>45285</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14272,7 +14232,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14309,14 +14269,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44651</v>
+        <v>45905</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14328,13 +14288,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14371,14 +14326,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14391,7 +14346,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14428,14 +14383,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45905</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14448,7 +14403,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14485,14 +14440,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45905</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14505,7 +14460,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.5</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14542,14 +14497,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>44902</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14562,7 +14517,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14599,14 +14554,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45072</v>
+        <v>44943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14618,13 +14573,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14661,14 +14611,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44358</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14680,8 +14630,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14718,14 +14673,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44387</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14737,8 +14692,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14775,14 +14735,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45194</v>
+        <v>45918</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14795,7 +14755,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14832,14 +14792,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44979</v>
+        <v>45923</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14852,7 +14812,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14889,14 +14849,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44565</v>
+        <v>45924</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14909,7 +14869,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>13.4</v>
+        <v>1.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14946,14 +14906,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>45924</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14966,7 +14926,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15003,14 +14963,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46013</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15023,7 +14983,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15060,14 +15020,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44725</v>
+        <v>45749</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15080,7 +15040,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>6.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15117,14 +15077,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44791</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15136,8 +15096,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15174,14 +15139,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15193,8 +15158,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>9.1</v>
+        <v>3.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15231,14 +15201,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45076</v>
+        <v>45938.5725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15250,8 +15220,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15288,14 +15263,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46013</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15307,8 +15282,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G249" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15345,14 +15325,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15370,7 +15350,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15407,14 +15387,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15426,8 +15406,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G251" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15464,14 +15449,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>44744</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15483,13 +15468,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15526,14 +15506,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>45226</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15546,7 +15526,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15583,14 +15563,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45615</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15603,7 +15583,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>8.9</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15640,14 +15620,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45448</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15660,7 +15640,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15697,14 +15677,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45598</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15717,7 +15697,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15754,14 +15734,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15773,8 +15753,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.6</v>
+        <v>10.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15811,14 +15796,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45321</v>
+        <v>45594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15830,8 +15815,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15868,14 +15858,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44938</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15888,7 +15878,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15925,14 +15915,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15945,7 +15935,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.5</v>
+        <v>17.1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15982,14 +15972,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16002,7 +15992,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16039,14 +16029,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16059,7 +16049,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16096,14 +16086,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45174</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16116,7 +16106,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16153,14 +16143,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45552</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16172,8 +16162,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G264" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16210,14 +16205,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45021</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16230,7 +16225,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16267,14 +16262,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44762</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16286,13 +16281,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>10.5</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16329,14 +16319,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16348,8 +16338,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16386,14 +16381,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45110</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16406,7 +16401,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16443,14 +16438,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44671</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16462,8 +16457,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>2.8</v>
+        <v>15.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16500,14 +16500,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45317</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16557,14 +16557,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44961</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16614,14 +16614,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16633,8 +16633,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16671,14 +16676,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>46023</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16691,7 +16696,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16728,14 +16733,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16747,13 +16752,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16790,14 +16790,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45418</v>
+        <v>44474</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16847,14 +16847,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45440</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16904,14 +16904,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16961,14 +16961,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45051</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17018,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45210</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17075,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17132,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17189,14 +17189,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45281</v>
+        <v>46013</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17246,14 +17246,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44798</v>
+        <v>46013</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24223-2021</t>
+          <t>A 66243-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44336</v>
+        <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1167,745 +1167,745 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 58185-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45983.47664351852</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 24223-2021</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44336</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 32279-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>45109</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>11.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Barkticka</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 66243-2021</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 24301-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Blomkålssvamp</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 66246-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44518</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Dropptaggsvamp</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 24301-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44337</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Järpe</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 58185-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45983.47664351852</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36439-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44390.91925925926</v>
+        <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 36439-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44263</v>
+        <v>44390.91925925926</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44608</v>
+        <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44525</v>
+        <v>44608</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2940,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 49267-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44323</v>
+        <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2959,13 +2959,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3002,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 47172-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44277</v>
+        <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 18721-2021</t>
+          <t>A 58031-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44307</v>
+        <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3079,7 +3074,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.4</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3123,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3173,14 +3168,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 55645-2022</t>
+          <t>A 41920-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44888.46758101852</v>
+        <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3193,7 +3188,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3230,14 +3225,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7742-2022</t>
+          <t>A 51865-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44608</v>
+        <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3250,7 +3245,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3287,14 +3282,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 64406-2021</t>
+          <t>A 43868-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44511</v>
+        <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3307,7 +3302,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3344,14 +3339,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 49267-2021</t>
+          <t>A 36012-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44454</v>
+        <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3364,7 +3359,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3401,14 +3396,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 42161-2022</t>
+          <t>A 36009-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44830</v>
+        <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3421,7 +3416,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3458,14 +3453,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41920-2021</t>
+          <t>A 18721-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44425</v>
+        <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3478,7 +3473,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>12.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3515,14 +3510,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 11326-2022</t>
+          <t>A 7742-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44629</v>
+        <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3535,7 +3530,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>10.4</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3572,14 +3567,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51891-2022</t>
+          <t>A 64406-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44867</v>
+        <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3592,7 +3587,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3629,14 +3624,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 47172-2021</t>
+          <t>A 42161-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44446</v>
+        <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3649,7 +3644,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3686,14 +3681,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 29152-2021</t>
+          <t>A 51891-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44358.64910879629</v>
+        <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3706,7 +3701,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3743,14 +3738,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31297-2021</t>
+          <t>A 29152-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44368</v>
+        <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3763,7 +3758,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>6.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3800,14 +3795,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31312-2021</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44368.90224537037</v>
+        <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3819,8 +3814,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3857,14 +3857,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11372-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44263</v>
+        <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 57032-2021</t>
+          <t>A 55645-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44482</v>
+        <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29366-2022</t>
+          <t>A 11326-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44752</v>
+        <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.2</v>
+        <v>10.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4028,14 +4028,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 58031-2021</t>
+          <t>A 31297-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44487.4566550926</v>
+        <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 26244-2022</t>
+          <t>A 31312-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44735.48247685185</v>
+        <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4142,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 53384-2022</t>
+          <t>A 11372-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44879.41210648148</v>
+        <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4199,14 +4199,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 29366-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44680</v>
+        <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15067-2021</t>
+          <t>A 26244-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44281</v>
+        <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4313,14 +4313,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 53384-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44655</v>
+        <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4332,13 +4332,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4375,14 +4370,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 56633-2021</t>
+          <t>A 15067-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44480.85344907407</v>
+        <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4390,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4432,14 +4427,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12856-2022</t>
+          <t>A 56633-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44642.49333333333</v>
+        <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4447,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>11.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4489,14 +4484,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 51865-2021</t>
+          <t>A 57032-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44462</v>
+        <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4504,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4546,14 +4541,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45306</v>
+        <v>44655</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4565,8 +4560,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4603,14 +4603,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44470</v>
+        <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 12856-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45076</v>
+        <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44468</v>
+        <v>44651</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4850,8 +4850,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4893,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44387</v>
+        <v>45755</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4913,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4965,7 +4970,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5002,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45615</v>
+        <v>44830</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.9</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5059,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45529</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5079,7 +5084,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.3</v>
+        <v>4.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5116,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44903</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5136,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5173,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44476</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,7 +5198,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5230,14 +5235,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44452</v>
+        <v>45483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5250,7 +5255,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5287,14 +5292,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44496</v>
+        <v>45184</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5306,8 +5311,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5344,14 +5354,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44918</v>
+        <v>45036</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,7 +5374,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5401,14 +5411,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44725</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5421,7 +5431,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5458,14 +5468,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44475</v>
+        <v>44496</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5478,7 +5488,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5515,14 +5525,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,7 +5545,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5572,14 +5582,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45343</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5592,7 +5602,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5629,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 43868-2021</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44434</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5649,7 +5659,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5686,14 +5696,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 36012-2021</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44389</v>
+        <v>44937</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5706,7 +5716,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5743,14 +5753,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44511</v>
+        <v>45594</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5762,8 +5772,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5800,14 +5815,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>44593</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5819,13 +5834,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5862,14 +5872,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45021</v>
+        <v>44594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5882,7 +5892,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5919,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36009-2021</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44389</v>
+        <v>45884</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5939,7 +5949,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5976,14 +5986,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44961</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5996,7 +6006,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.2</v>
+        <v>17.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6033,14 +6043,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45448</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6052,8 +6062,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6090,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44918</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6110,7 +6125,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6147,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45321</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6167,7 +6182,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.1</v>
+        <v>6.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6204,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44999</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6225,7 +6240,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -6266,14 +6281,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44623</v>
+        <v>45076</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6301,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6323,14 +6338,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44407</v>
+        <v>45076</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6343,7 +6358,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6380,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44938</v>
+        <v>44623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6400,7 +6415,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6437,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44979</v>
+        <v>44476</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6457,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6494,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6514,7 +6529,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6551,14 +6566,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44859</v>
+        <v>44903</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6571,7 +6586,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6608,14 +6623,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44859</v>
+        <v>44678</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6628,7 +6643,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6665,14 +6680,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44859</v>
+        <v>46023</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6685,7 +6700,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>4.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6722,14 +6737,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44358</v>
+        <v>45041</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6742,7 +6757,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6779,14 +6794,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44617</v>
+        <v>44421</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6798,13 +6813,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6841,14 +6851,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44937</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6861,7 +6871,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6898,14 +6908,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>44407</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6918,7 +6928,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6955,14 +6965,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6975,7 +6985,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7012,14 +7022,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>44918</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7032,7 +7042,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7069,14 +7079,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44990</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7089,7 +7099,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7126,14 +7136,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45428</v>
+        <v>45096</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7145,8 +7155,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7183,14 +7198,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45041</v>
+        <v>45210</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7203,7 +7218,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7247,7 +7262,7 @@
         <v>45432</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7297,14 +7312,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44421</v>
+        <v>45754</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7316,8 +7331,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7354,14 +7374,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44671</v>
+        <v>44511</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7374,7 +7394,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7411,14 +7431,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45174</v>
+        <v>45561</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7431,7 +7451,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>16.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7468,14 +7488,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45056</v>
+        <v>45236</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7488,7 +7508,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7525,14 +7545,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45428</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7545,7 +7565,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7582,14 +7602,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45594</v>
+        <v>45175</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7602,7 +7622,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7639,14 +7659,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44938</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7659,7 +7679,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7696,14 +7716,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>44320</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7716,7 +7736,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7753,14 +7773,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45302</v>
+        <v>44685</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7773,7 +7793,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7810,14 +7830,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45418</v>
+        <v>45733</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7830,7 +7850,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7867,14 +7887,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44993</v>
+        <v>44452</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7886,13 +7906,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>18.6</v>
+        <v>3.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7929,14 +7944,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45905</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7964,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7986,14 +8001,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45705</v>
+        <v>45905</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8021,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8043,14 +8058,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44573</v>
+        <v>45905</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8078,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8100,14 +8115,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45905</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8135,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8157,14 +8172,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45552</v>
+        <v>45905</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8214,14 +8229,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45905</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8249,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8271,14 +8286,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>45905</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8306,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8328,14 +8343,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45343</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8363,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8385,14 +8400,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45754</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8404,13 +8419,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8447,14 +8457,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45623</v>
+        <v>44902</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8467,7 +8477,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8504,14 +8514,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8523,13 +8533,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>10.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8566,14 +8571,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44594</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8586,7 +8591,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8623,14 +8628,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45072</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8642,13 +8647,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8685,14 +8685,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45630</v>
+        <v>45529</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8742,14 +8742,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45036</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8799,14 +8799,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8819,7 +8819,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8856,14 +8856,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>44945.4825</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8913,14 +8913,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44565</v>
+        <v>44263</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8933,7 +8933,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>13.4</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8970,14 +8970,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44573</v>
+        <v>44943</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9027,14 +9027,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45561</v>
+        <v>44594</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>16.5</v>
+        <v>3.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9084,14 +9084,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44496</v>
+        <v>45918</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9141,14 +9141,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44593</v>
+        <v>44496</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9198,14 +9198,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44999</v>
+        <v>45715</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9217,13 +9217,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9260,14 +9255,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44859</v>
+        <v>45923</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9280,7 +9275,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9317,14 +9312,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9337,7 +9332,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9374,14 +9369,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45924</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9394,7 +9389,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9431,14 +9426,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44651</v>
+        <v>45924</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9450,13 +9445,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9493,14 +9483,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45076</v>
+        <v>44573</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9513,7 +9503,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9550,14 +9540,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44594</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9570,7 +9560,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9607,14 +9597,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44565</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9627,7 +9617,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9664,14 +9654,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45597</v>
+        <v>45247</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9684,7 +9674,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9721,14 +9711,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45076</v>
+        <v>45285</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9741,7 +9731,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9778,14 +9768,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45239</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9798,7 +9788,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9835,14 +9825,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45239</v>
+        <v>44565</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9855,7 +9845,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9892,14 +9882,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45110</v>
+        <v>45938.5725</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9911,8 +9901,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9949,14 +9944,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9968,8 +9963,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10006,14 +10006,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10068,14 +10068,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45175</v>
+        <v>44990</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10125,14 +10125,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45281</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10144,8 +10144,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10182,14 +10187,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44830</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10201,8 +10206,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10239,14 +10249,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44651</v>
+        <v>45597</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10258,13 +10268,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10301,14 +10306,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>44859</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10321,7 +10326,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10358,14 +10363,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>44918</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10378,7 +10383,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10415,14 +10420,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45109</v>
+        <v>45306</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10472,14 +10477,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45733</v>
+        <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10492,7 +10497,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10529,14 +10534,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45096</v>
+        <v>44859</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10548,13 +10553,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10591,14 +10591,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10608,11 +10608,6 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
         </is>
       </c>
       <c r="G168" t="n">
@@ -10653,14 +10648,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44685</v>
+        <v>44859</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10673,7 +10668,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10710,14 +10705,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44762</v>
+        <v>44859</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10729,13 +10724,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>10.5</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10772,14 +10762,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45247</v>
+        <v>44475</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10792,7 +10782,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10829,14 +10819,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>45191</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10849,7 +10839,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10886,14 +10876,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10905,8 +10895,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>10.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10943,14 +10938,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10963,7 +10958,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11000,14 +10995,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44791</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11020,7 +11015,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11057,14 +11052,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>44468</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11077,7 +11072,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11114,14 +11109,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45483</v>
+        <v>45056</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11134,7 +11129,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11171,14 +11166,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45194</v>
+        <v>45109</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11191,7 +11186,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11228,14 +11223,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45135</v>
+        <v>44617</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11249,11 +11244,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11290,14 +11285,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45755</v>
+        <v>44893</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11310,7 +11305,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11347,14 +11342,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45051</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11367,7 +11362,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11404,14 +11399,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>44990</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11424,7 +11419,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>10.4</v>
+        <v>3.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11461,14 +11456,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>44993</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11480,8 +11475,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>3.4</v>
+        <v>18.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11518,14 +11518,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45705</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11575,14 +11575,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>45755</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11632,14 +11632,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45715</v>
+        <v>45623</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11689,14 +11689,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45191</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11746,14 +11746,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.6</v>
+        <v>7.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11803,14 +11803,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45317</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11860,14 +11860,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>45302</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11917,14 +11917,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11974,14 +11974,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11993,8 +11993,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12031,14 +12036,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>44470</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12051,7 +12056,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12088,14 +12093,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45210</v>
+        <v>44651</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12107,8 +12112,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12145,14 +12155,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45440</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12164,8 +12174,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12202,14 +12217,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12221,8 +12236,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>15.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12259,14 +12279,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12278,13 +12298,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12321,14 +12336,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44678</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12341,7 +12356,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12378,14 +12393,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44859</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12397,8 +12412,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12435,14 +12455,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12455,7 +12475,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12492,14 +12512,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44608</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12512,7 +12532,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12549,14 +12569,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12569,7 +12589,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12606,14 +12626,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45237</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12626,7 +12646,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12663,14 +12683,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45236</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12683,7 +12703,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12720,14 +12740,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>45072</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12739,8 +12759,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12777,14 +12802,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45884</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12796,8 +12821,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>4.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12834,14 +12864,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12854,7 +12884,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12891,14 +12921,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>44358</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12911,7 +12941,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12948,14 +12978,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44496</v>
+        <v>44387</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12968,7 +12998,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13005,14 +13035,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45076</v>
+        <v>45194</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13025,7 +13055,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13062,14 +13092,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44990</v>
+        <v>44979</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13082,7 +13112,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13119,14 +13149,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44594</v>
+        <v>44565</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13139,7 +13169,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.5</v>
+        <v>13.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13176,14 +13206,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13196,7 +13226,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13233,14 +13263,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45210</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13253,7 +13283,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13290,14 +13320,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44263</v>
+        <v>44474</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13310,7 +13340,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13347,14 +13377,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44910</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13366,13 +13396,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13409,14 +13434,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45184</v>
+        <v>44725</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13428,13 +13453,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13471,14 +13491,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44893</v>
+        <v>44791</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13491,7 +13511,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13528,14 +13548,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13548,7 +13568,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.2</v>
+        <v>9.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13585,14 +13605,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>45076</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13605,7 +13625,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13642,14 +13662,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13661,8 +13681,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13699,14 +13724,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44798</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13719,7 +13744,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13756,14 +13781,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45630</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13776,7 +13801,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13813,14 +13838,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13833,7 +13858,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13870,14 +13895,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44320</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13889,8 +13914,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>7.7</v>
+        <v>1.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13927,14 +13957,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13947,7 +13977,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13984,14 +14014,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45905</v>
+        <v>45615</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14004,7 +14034,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14041,14 +14071,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45905</v>
+        <v>45448</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14061,7 +14091,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14098,14 +14128,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45905</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14118,7 +14148,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14155,14 +14185,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45905</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14175,7 +14205,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14212,14 +14242,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45285</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14232,7 +14262,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14269,14 +14299,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45905</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14289,7 +14319,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14326,14 +14356,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45321</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14346,7 +14376,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14383,14 +14413,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45905</v>
+        <v>44938</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14403,7 +14433,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14440,14 +14470,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45905</v>
+        <v>46013</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14460,7 +14490,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14497,14 +14527,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44902</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14517,7 +14547,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14554,14 +14584,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44943</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14574,7 +14604,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14611,14 +14641,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14630,13 +14660,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14673,14 +14698,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45174</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14692,13 +14717,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14735,14 +14755,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45918</v>
+        <v>45552</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14755,7 +14775,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14792,14 +14812,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45923</v>
+        <v>45021</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14812,7 +14832,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14849,14 +14869,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45924</v>
+        <v>46013</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14869,7 +14889,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14906,14 +14926,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45924</v>
+        <v>44762</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14925,8 +14945,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14963,14 +14988,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14983,7 +15008,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15020,14 +15045,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45749</v>
+        <v>45110</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15040,7 +15065,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15077,14 +15102,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>44671</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15096,13 +15121,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15139,14 +15159,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45317</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15158,13 +15178,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15201,14 +15216,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45938.5725</v>
+        <v>44961</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15220,13 +15235,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15263,14 +15273,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15282,13 +15292,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15325,14 +15330,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15344,13 +15349,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15387,14 +15387,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15449,14 +15449,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44744</v>
+        <v>45418</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15506,14 +15506,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45226</v>
+        <v>45440</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15563,14 +15563,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.8</v>
+        <v>5.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15620,14 +15620,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>45051</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15677,14 +15677,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45598</v>
+        <v>45210</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15734,14 +15734,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15753,13 +15753,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>10.7</v>
+        <v>1.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15796,14 +15791,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45594</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15815,13 +15810,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G258" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15858,14 +15848,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45281</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15878,7 +15868,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15915,14 +15905,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>44798</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15935,7 +15925,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>17.1</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15972,14 +15962,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>45594</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16029,14 +16019,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16048,8 +16038,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G262" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16086,14 +16081,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16105,8 +16100,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16143,14 +16143,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16164,11 +16164,11 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16205,14 +16205,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>44573</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16262,14 +16262,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>45076</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16319,14 +16319,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>44608</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16338,13 +16338,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16381,14 +16376,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>44594</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16401,7 +16396,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16438,14 +16433,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>44910</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16459,11 +16454,11 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G269" t="n">
-        <v>15.9</v>
+        <v>4.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16500,14 +16495,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>45630</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16520,7 +16515,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16557,14 +16552,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16577,7 +16572,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16614,14 +16609,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45135</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16635,11 +16630,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16676,14 +16671,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46023</v>
+        <v>44496</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16696,7 +16691,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16733,14 +16728,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16753,7 +16748,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16790,14 +16785,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44474</v>
+        <v>44938</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16810,7 +16805,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16847,14 +16842,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16867,7 +16862,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16904,14 +16899,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>44744</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16924,7 +16919,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16961,14 +16956,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16980,8 +16975,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17018,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45749</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.4</v>
+        <v>6.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17075,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45226</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17132,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17189,14 +17189,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46013</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17246,14 +17246,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>46013</v>
+        <v>45598</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1198,14 +1198,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 66246-2021</t>
+          <t>A 58185-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44518</v>
+        <v>45983.47664351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1218,17 +1218,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1252,396 +1252,396 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 66246-2021</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 58185-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45983.47664351852</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44608</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 36439-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44263</v>
+        <v>44390.91925925926</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 36439-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44390.91925925926</v>
+        <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>44480</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44474</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44525</v>
+        <v>44608</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44608</v>
+        <v>44525</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44244</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44307</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44295</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44692</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44617</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44425</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44462</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44434</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44307</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44608</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44511</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44830</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         <v>44323</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44277</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44368</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44263</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44752</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44281</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44482</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4541,14 +4541,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44655</v>
+        <v>44680</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4560,13 +4560,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4603,14 +4598,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44680</v>
+        <v>44655</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4622,8 +4617,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44734.72508101852</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44651</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4900,7 +4900,7 @@
         <v>45755</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
         <v>44642.51204861111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44830</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45735.42776620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>44910.56230324074</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>44977.49680555556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>45483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5292,14 +5292,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45184</v>
+        <v>44496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5311,13 +5311,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5354,14 +5349,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45036</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5374,7 +5369,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5411,14 +5406,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45343</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5431,7 +5426,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5468,14 +5463,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44496</v>
+        <v>45184</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,8 +5482,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5525,14 +5525,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5582,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45343</v>
+        <v>45036</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5696,14 +5696,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44937</v>
+        <v>45884</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5753,14 +5753,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45594</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5772,13 +5772,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5810,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44593</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5835,7 +5830,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5872,14 +5867,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44594</v>
+        <v>45598</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5892,7 +5887,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5924,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45884</v>
+        <v>44937</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5949,7 +5944,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5986,14 +5981,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45594</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6005,8 +6000,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>17.1</v>
+        <v>5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6062,13 +6062,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6105,14 +6100,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6125,7 +6120,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6162,14 +6157,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>44593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6182,7 +6177,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6214,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44999</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6238,13 +6233,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>17.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6281,14 +6271,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45076</v>
+        <v>44594</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6301,7 +6291,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6338,14 +6328,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45076</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6357,8 +6347,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6395,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44623</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6415,7 +6410,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6447,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44476</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>44999</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6528,8 +6523,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44903</v>
+        <v>45076</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6623,14 +6623,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44678</v>
+        <v>45076</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6680,14 +6680,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46023</v>
+        <v>44623</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6737,14 +6737,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45041</v>
+        <v>44476</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6794,14 +6794,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44421</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6851,14 +6851,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45905</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6908,14 +6908,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44407</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6965,14 +6965,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>44903</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7022,14 +7022,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44918</v>
+        <v>44678</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45096</v>
+        <v>45905</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7155,13 +7155,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7198,14 +7193,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45210</v>
+        <v>45905</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7213,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7255,14 +7250,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45432</v>
+        <v>45905</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7270,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7312,14 +7307,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45754</v>
+        <v>45905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7331,13 +7326,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7374,14 +7364,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44511</v>
+        <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7394,7 +7384,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7431,14 +7421,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45561</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7451,7 +7441,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7488,14 +7478,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45236</v>
+        <v>45041</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7508,7 +7498,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7545,14 +7535,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45428</v>
+        <v>44421</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7565,7 +7555,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7602,14 +7592,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45175</v>
+        <v>44407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7622,7 +7612,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7659,14 +7649,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>44918</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7679,7 +7669,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7716,14 +7706,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44320</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7736,7 +7726,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>7.7</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7773,14 +7763,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44685</v>
+        <v>45561</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7793,7 +7783,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>16.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7830,14 +7820,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45733</v>
+        <v>45096</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7849,8 +7839,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7887,14 +7882,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44452</v>
+        <v>45210</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7907,7 +7902,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7944,14 +7939,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45905</v>
+        <v>45432</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7964,7 +7959,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8001,14 +7996,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8021,7 +8016,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8058,14 +8053,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45905</v>
+        <v>45754</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8077,8 +8072,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8115,14 +8115,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45905</v>
+        <v>44511</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8172,14 +8172,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8229,14 +8229,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45905</v>
+        <v>46013</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8286,14 +8286,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45905</v>
+        <v>45236</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8343,14 +8343,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45924</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8400,14 +8400,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>45924</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8457,14 +8457,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44902</v>
+        <v>45428</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8514,14 +8514,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45175</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>10.4</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8571,14 +8571,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8628,14 +8628,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>44685</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8685,14 +8685,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45529</v>
+        <v>45733</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8742,14 +8742,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>44320</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8799,14 +8799,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45938.5725</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8818,8 +8818,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8856,14 +8861,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8875,8 +8880,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8913,14 +8923,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44263</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8932,8 +8942,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8970,14 +8985,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44943</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8989,8 +9004,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9027,14 +9047,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44594</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9046,8 +9066,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9084,14 +9109,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45918</v>
+        <v>44452</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9104,7 +9129,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9141,14 +9166,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44496</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9161,7 +9186,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.9</v>
+        <v>10.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9198,14 +9223,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45715</v>
+        <v>46013</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9218,7 +9243,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9255,14 +9280,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45923</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9275,7 +9300,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9312,14 +9337,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9332,7 +9357,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9369,14 +9394,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45924</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9388,8 +9413,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9426,14 +9456,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45924</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9446,7 +9476,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9483,14 +9513,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44573</v>
+        <v>44902</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9503,7 +9533,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9540,14 +9570,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>44263</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9560,7 +9590,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9597,14 +9627,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9617,7 +9647,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9654,14 +9684,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45247</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9674,7 +9704,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9711,14 +9741,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45285</v>
+        <v>44594</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9731,7 +9761,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9768,14 +9798,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45239</v>
+        <v>44496</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9788,7 +9818,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9825,14 +9855,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44565</v>
+        <v>45529</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9845,7 +9875,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9882,14 +9912,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9901,13 +9931,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9944,14 +9969,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9963,13 +9988,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10006,14 +10026,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10025,13 +10045,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10068,14 +10083,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44990</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10088,7 +10103,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10125,14 +10140,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10144,13 +10159,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10187,14 +10197,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>44945.4825</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10206,13 +10216,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10249,14 +10254,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45597</v>
+        <v>44943</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10269,7 +10274,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10306,14 +10311,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44859</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10325,8 +10330,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10363,14 +10373,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44918</v>
+        <v>45715</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10383,7 +10393,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10420,14 +10430,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45306</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10439,8 +10449,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>2.7</v>
+        <v>15.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10477,14 +10492,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44859</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10497,7 +10512,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10534,14 +10549,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44859</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10554,7 +10569,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10591,14 +10606,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45630</v>
+        <v>46023</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10611,7 +10626,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10648,14 +10663,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44859</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10668,7 +10683,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10705,14 +10720,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44859</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10724,8 +10739,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10762,14 +10782,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44475</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10782,7 +10802,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10819,14 +10839,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45191</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10839,7 +10859,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10876,14 +10896,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10895,13 +10915,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10938,14 +10953,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10957,8 +10972,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10995,14 +11015,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11015,7 +11035,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11052,14 +11072,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44468</v>
+        <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11072,7 +11092,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11109,14 +11129,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45056</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11129,7 +11149,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11166,14 +11186,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45109</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11186,7 +11206,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11223,14 +11243,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44617</v>
+        <v>45247</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11242,13 +11262,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G179" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11285,14 +11300,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44893</v>
+        <v>45285</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11305,7 +11320,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11342,14 +11357,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>45239</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11362,7 +11377,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11399,14 +11414,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44990</v>
+        <v>44565</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11419,7 +11434,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11456,14 +11471,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44993</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11475,13 +11490,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>18.6</v>
+        <v>3.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11518,14 +11528,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45705</v>
+        <v>44474</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11538,7 +11548,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11575,14 +11585,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45755</v>
+        <v>44990</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11595,7 +11605,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11632,14 +11642,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45623</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11652,7 +11662,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11689,14 +11699,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45597</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11709,7 +11719,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11746,14 +11756,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>44859</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11766,7 +11776,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11803,14 +11813,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11823,7 +11833,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11860,14 +11870,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45302</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11880,7 +11890,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11917,14 +11927,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45237</v>
+        <v>44918</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11937,7 +11947,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11974,14 +11984,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45306</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11993,13 +12003,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12036,14 +12041,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44470</v>
+        <v>44859</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12056,7 +12061,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12093,14 +12098,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44651</v>
+        <v>44859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12112,13 +12117,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12155,14 +12155,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45630</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12174,13 +12174,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12217,14 +12212,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>44859</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12236,13 +12231,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G196" t="n">
-        <v>15.9</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12279,14 +12269,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>44859</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12299,7 +12289,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12336,14 +12326,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>44475</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12356,7 +12346,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12393,14 +12383,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45191</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12412,13 +12402,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12455,14 +12440,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12475,7 +12460,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12512,14 +12497,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44468</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12532,7 +12517,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12569,14 +12554,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45056</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12589,7 +12574,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12626,14 +12611,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>45109</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12646,7 +12631,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12683,14 +12668,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>44617</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12702,8 +12687,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12740,14 +12730,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45072</v>
+        <v>44893</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12759,13 +12749,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12802,14 +12787,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12821,13 +12806,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G206" t="n">
-        <v>8.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12864,14 +12844,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>44990</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12884,7 +12864,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12921,14 +12901,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44358</v>
+        <v>44993</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12940,8 +12920,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.7</v>
+        <v>18.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12978,14 +12963,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44387</v>
+        <v>45705</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12998,7 +12983,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13035,14 +13020,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45194</v>
+        <v>45755</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13055,7 +13040,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13092,14 +13077,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44979</v>
+        <v>45623</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13097,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13149,14 +13134,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44565</v>
+        <v>45302</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13169,7 +13154,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>13.4</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13206,14 +13191,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>45237</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13226,7 +13211,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13263,14 +13248,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13280,6 +13265,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G214" t="n">
@@ -13320,14 +13310,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13340,7 +13330,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13377,14 +13367,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>44651</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13396,8 +13386,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13434,14 +13429,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44725</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13454,7 +13449,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13491,14 +13486,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44791</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13511,7 +13506,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13548,14 +13543,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45072</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13567,8 +13562,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>9.1</v>
+        <v>2.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13605,14 +13605,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45076</v>
+        <v>44358</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13662,14 +13662,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>44387</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13681,13 +13681,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13724,14 +13719,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>45194</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13744,7 +13739,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13781,14 +13776,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>44979</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13801,7 +13796,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>4.4</v>
+        <v>8.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13838,14 +13833,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>44565</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13858,7 +13853,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.4</v>
+        <v>13.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13895,14 +13890,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13914,13 +13909,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13957,14 +13947,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>44725</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13977,7 +13967,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14014,14 +14004,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45615</v>
+        <v>44791</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14034,7 +14024,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14071,14 +14061,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45448</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14091,7 +14081,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.7</v>
+        <v>9.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14128,14 +14118,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45076</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14148,7 +14138,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14185,14 +14175,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14204,8 +14194,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14242,14 +14237,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14262,7 +14257,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14299,14 +14294,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14318,8 +14313,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14356,14 +14356,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45321</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14413,14 +14413,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44938</v>
+        <v>45615</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14470,14 +14470,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46013</v>
+        <v>45448</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14527,14 +14527,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14584,14 +14584,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14641,14 +14641,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45321</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14698,14 +14698,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45174</v>
+        <v>44938</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14755,14 +14755,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45552</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14812,14 +14812,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45021</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.3</v>
+        <v>2.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14869,14 +14869,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46013</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14926,14 +14926,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44762</v>
+        <v>45174</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14945,13 +14945,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14988,14 +14983,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45552</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15008,7 +15003,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15045,14 +15040,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45110</v>
+        <v>45021</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15065,7 +15060,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15102,14 +15097,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44671</v>
+        <v>44762</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15121,8 +15116,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>2.8</v>
+        <v>10.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15159,14 +15159,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45317</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15216,14 +15216,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44961</v>
+        <v>45110</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.2</v>
+        <v>2.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15273,14 +15273,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>44671</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15330,14 +15330,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>45317</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15387,14 +15387,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>44961</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15406,13 +15406,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15449,14 +15444,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45418</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15469,7 +15464,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15506,14 +15501,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45440</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15526,7 +15521,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15563,14 +15558,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15582,8 +15577,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15620,14 +15620,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45051</v>
+        <v>45418</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15677,14 +15677,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45210</v>
+        <v>45440</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15734,14 +15734,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15754,7 +15754,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15791,14 +15791,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45051</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15811,7 +15811,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15848,14 +15848,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45281</v>
+        <v>45210</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15905,14 +15905,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44798</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15962,14 +15962,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45594</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16019,14 +16019,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>45281</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16038,13 +16038,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16081,14 +16076,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44798</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16100,13 +16095,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16143,14 +16133,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45594</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16162,13 +16152,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16205,14 +16190,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44573</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16224,8 +16209,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16262,14 +16252,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45076</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16281,8 +16271,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16319,14 +16314,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44608</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16338,8 +16333,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16376,14 +16376,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44594</v>
+        <v>44573</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16433,14 +16433,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44910</v>
+        <v>45076</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16452,13 +16452,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16495,14 +16490,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45630</v>
+        <v>44608</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16510,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16552,14 +16547,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>44594</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16572,7 +16567,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16609,14 +16604,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45135</v>
+        <v>44910</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16630,11 +16625,11 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16671,14 +16666,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44496</v>
+        <v>45630</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16691,7 +16686,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16728,14 +16723,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16748,7 +16743,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16785,14 +16780,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44938</v>
+        <v>45135</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16804,8 +16799,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16842,14 +16842,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44496</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16899,14 +16899,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44744</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16956,14 +16956,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>44938</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16975,13 +16975,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17013,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45749</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17033,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17070,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45226</v>
+        <v>44744</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17095,7 +17090,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>5.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17127,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17149,6 +17144,11 @@
       <c r="E281" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -17189,14 +17189,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45749</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.8</v>
+        <v>6.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17246,14 +17246,14 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45598</v>
+        <v>45226</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z283"/>
+  <dimension ref="A1:Z281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45983.47664351852</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>44518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 14537-2022</t>
+          <t>A 7821-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44655</v>
+        <v>44608</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2042,13 +2042,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2085,14 +2080,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 10438-2022</t>
+          <t>A 14537-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44623</v>
+        <v>44655</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2104,8 +2099,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8549-2021</t>
+          <t>A 10438-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44245</v>
+        <v>44623</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 7821-2022</t>
+          <t>A 36439-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44608</v>
+        <v>44390.91925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 36439-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44390.91925925926</v>
+        <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 56625-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44263</v>
+        <v>44480</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 56625-2021</t>
+          <t>A 54980-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44480</v>
+        <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2484,14 +2484,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54980-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44474</v>
+        <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44608</v>
+        <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 18744-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44525</v>
+        <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>17.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2655,14 +2655,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 8487-2021</t>
+          <t>A 36013-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44244</v>
+        <v>44389</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2712,14 +2712,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18744-2021</t>
+          <t>A 17047-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44307</v>
+        <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>17.6</v>
+        <v>1.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2769,14 +2769,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 36013-2021</t>
+          <t>A 19370-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44389</v>
+        <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2826,14 +2826,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 17047-2021</t>
+          <t>A 49267-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44295</v>
+        <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2883,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 19370-2022</t>
+          <t>A 47172-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44692</v>
+        <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 49267-2021</t>
+          <t>A 58031-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44454</v>
+        <v>44487.4566550926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.3</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47172-2021</t>
+          <t>A 9648-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44446</v>
+        <v>44617</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 58031-2021</t>
+          <t>A 41920-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44487.4566550926</v>
+        <v>44425</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3111,14 +3111,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9648-2022</t>
+          <t>A 51865-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44617</v>
+        <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3168,14 +3168,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41920-2021</t>
+          <t>A 43868-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44425</v>
+        <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3225,14 +3225,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 51865-2021</t>
+          <t>A 36012-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44462</v>
+        <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43868-2021</t>
+          <t>A 36009-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44434</v>
+        <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 36012-2021</t>
+          <t>A 18721-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44389</v>
+        <v>44307</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.5</v>
+        <v>12.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36009-2021</t>
+          <t>A 7742-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44389</v>
+        <v>44608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18721-2021</t>
+          <t>A 64406-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44307</v>
+        <v>44511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>12.4</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3510,14 +3510,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 7742-2022</t>
+          <t>A 42161-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44608</v>
+        <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3567,14 +3567,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 64406-2021</t>
+          <t>A 51891-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44511</v>
+        <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3624,14 +3624,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 42161-2022</t>
+          <t>A 29152-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44830</v>
+        <v>44358.64910879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3681,14 +3681,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51891-2022</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44867</v>
+        <v>44323</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3700,8 +3700,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3738,14 +3743,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29152-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44358.64910879629</v>
+        <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3763,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3795,14 +3800,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 55645-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44323</v>
+        <v>44888.46758101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3814,13 +3819,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3857,14 +3857,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 11326-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44277</v>
+        <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.6</v>
+        <v>10.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55645-2022</t>
+          <t>A 31297-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44888.46758101852</v>
+        <v>44368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 11326-2022</t>
+          <t>A 31312-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44629</v>
+        <v>44368.90224537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>10.4</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4028,14 +4028,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31297-2021</t>
+          <t>A 11372-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44368</v>
+        <v>44263</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31312-2021</t>
+          <t>A 29366-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44368.90224537037</v>
+        <v>44752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4142,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11372-2021</t>
+          <t>A 26244-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44263</v>
+        <v>44735.48247685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4199,14 +4199,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 29366-2022</t>
+          <t>A 53384-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44752</v>
+        <v>44879.41210648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 26244-2022</t>
+          <t>A 15067-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44735.48247685185</v>
+        <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4313,14 +4313,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 53384-2022</t>
+          <t>A 56633-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44879.41210648148</v>
+        <v>44480.85344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.4</v>
+        <v>11.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4370,14 +4370,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 15067-2021</t>
+          <t>A 57032-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44281</v>
+        <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4427,14 +4427,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56633-2021</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44480.85344907407</v>
+        <v>44655</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,8 +4446,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>11.2</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4484,14 +4489,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57032-2021</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44482</v>
+        <v>44680</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4504,7 +4509,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4541,14 +4546,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 12856-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44680</v>
+        <v>44642.49333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4561,7 +4566,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4598,14 +4603,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 55450-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44655</v>
+        <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4617,13 +4622,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12856-2022</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44642.49333333333</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4717,14 +4717,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55450-2021</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44475</v>
+        <v>44651</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4736,8 +4736,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4774,14 +4779,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>44830</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4799,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4836,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44651</v>
+        <v>45755</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4850,13 +4855,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4893,14 +4893,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45755</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4950,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44830</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.6</v>
+        <v>7.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>44744</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5235,14 +5235,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45483</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5292,14 +5292,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44496</v>
+        <v>45884</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5349,14 +5349,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45483</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5406,14 +5406,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45343</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5425,8 +5425,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5463,14 +5468,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45184</v>
+        <v>45749</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5482,13 +5487,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>6.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5525,14 +5525,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45226</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5582,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45036</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>45184</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5658,8 +5658,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5696,14 +5701,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45884</v>
+        <v>45036</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5716,7 +5721,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5760,7 +5765,7 @@
         <v>45576.60533564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5810,14 +5815,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>45598</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5835,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5867,14 +5872,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45598</v>
+        <v>44496</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5892,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5924,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44937</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5949,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5981,14 +5986,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45594</v>
+        <v>45343</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6000,13 +6005,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6043,14 +6043,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6100,14 +6100,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45594</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6117,6 +6117,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -6157,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44593</v>
+        <v>44937</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6177,7 +6182,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6214,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6234,7 +6239,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>17.1</v>
+        <v>1.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6271,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44594</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6291,7 +6296,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>17.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6328,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6353,7 +6358,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>6.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>44593</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>44594</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44999</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6525,11 +6530,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>15.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6566,14 +6571,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45076</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6585,8 +6590,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6623,14 +6633,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45076</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6643,7 +6653,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6680,14 +6690,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44623</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6700,7 +6710,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6737,14 +6747,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44476</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6757,7 +6767,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6794,14 +6804,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6814,7 +6824,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6858,7 +6868,7 @@
         <v>45905</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6908,14 +6918,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45905</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6928,7 +6938,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6965,14 +6975,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44903</v>
+        <v>45905</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6985,7 +6995,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7022,14 +7032,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44678</v>
+        <v>44999</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7041,8 +7051,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7079,14 +7094,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7099,7 +7114,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7136,14 +7151,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7156,7 +7171,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7193,14 +7208,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7213,7 +7228,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7250,14 +7265,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45905</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7269,8 +7284,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7307,14 +7327,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7327,7 +7347,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7364,14 +7384,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45905</v>
+        <v>45076</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7384,7 +7404,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7421,14 +7441,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45076</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7441,7 +7461,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7478,14 +7498,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45041</v>
+        <v>44623</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7498,7 +7518,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7535,14 +7555,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44421</v>
+        <v>44476</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7555,7 +7575,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7592,14 +7612,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44407</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7612,7 +7632,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7649,14 +7669,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44918</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7669,7 +7689,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7706,14 +7726,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7726,7 +7746,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7763,14 +7783,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45561</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7783,7 +7803,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>16.5</v>
+        <v>2.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7820,14 +7840,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45096</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7839,13 +7859,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7882,14 +7897,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45210</v>
+        <v>44903</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7902,7 +7917,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7939,14 +7954,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45432</v>
+        <v>44678</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7959,7 +7974,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7996,14 +8011,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8016,7 +8031,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8053,14 +8068,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45754</v>
+        <v>45041</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8072,13 +8087,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8115,14 +8125,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44511</v>
+        <v>44421</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8135,7 +8145,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8172,14 +8182,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8192,7 +8202,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8229,14 +8239,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46013</v>
+        <v>45923</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8249,7 +8259,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8286,14 +8296,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45236</v>
+        <v>44407</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8306,7 +8316,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8350,7 +8360,7 @@
         <v>45924</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8407,7 +8417,7 @@
         <v>45924</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8457,14 +8467,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45428</v>
+        <v>44918</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8477,7 +8487,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8514,14 +8524,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45175</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8534,7 +8544,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8571,14 +8581,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45561</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8591,7 +8601,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.1</v>
+        <v>16.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8628,14 +8638,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44685</v>
+        <v>45096</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8647,8 +8657,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8685,14 +8700,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45733</v>
+        <v>45210</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8705,7 +8720,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8742,14 +8757,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44320</v>
+        <v>45432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8762,7 +8777,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8799,14 +8814,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45754</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8824,7 +8839,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8861,14 +8876,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>44511</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8880,13 +8895,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8923,14 +8933,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45236</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8942,13 +8952,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8985,14 +8990,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>45938.5725</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9010,7 +9015,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9047,14 +9052,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9072,7 +9077,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9109,14 +9114,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44452</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9128,8 +9133,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9166,14 +9176,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45428</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9186,7 +9196,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>10.4</v>
+        <v>3.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9223,14 +9233,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>46013</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9242,8 +9252,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9280,14 +9295,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9299,8 +9314,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9337,14 +9357,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45175</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9357,7 +9377,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9394,14 +9414,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9419,7 +9439,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>10.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9456,14 +9476,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9476,7 +9496,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9513,14 +9533,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44902</v>
+        <v>44685</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9533,7 +9553,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9570,14 +9590,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44263</v>
+        <v>44320</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9590,7 +9610,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9627,14 +9647,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9647,7 +9667,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9684,14 +9704,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45733</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9704,7 +9724,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9741,14 +9761,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44594</v>
+        <v>44452</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9761,7 +9781,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9798,14 +9818,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44496</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9817,8 +9837,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>10.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9855,14 +9880,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45529</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9875,7 +9900,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9912,14 +9937,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9932,7 +9957,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9969,14 +9994,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9989,7 +10014,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10026,14 +10051,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10046,7 +10071,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10083,14 +10108,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>44902</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10103,7 +10128,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10140,14 +10165,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10160,7 +10185,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10197,14 +10222,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10217,7 +10242,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10254,14 +10279,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44943</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10274,7 +10299,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10311,14 +10336,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45529</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10330,13 +10355,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10373,14 +10393,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45715</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10393,7 +10413,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10430,14 +10450,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10449,13 +10469,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>15.9</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10492,14 +10507,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>44474</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10512,7 +10527,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10549,14 +10564,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10569,7 +10584,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10606,14 +10621,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46023</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10626,7 +10641,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10663,14 +10678,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>44945.4825</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10683,7 +10698,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10720,14 +10735,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>44263</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10739,13 +10754,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10782,14 +10792,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44943</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10802,7 +10812,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10839,14 +10849,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45715</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10859,7 +10869,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10896,14 +10906,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>44594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10916,7 +10926,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10953,14 +10963,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10972,13 +10982,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11015,14 +11020,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>44496</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11035,7 +11040,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11072,14 +11077,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44573</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11092,7 +11097,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11129,14 +11134,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11149,7 +11154,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11186,14 +11191,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11206,7 +11211,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11243,14 +11248,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45247</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11263,7 +11268,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11300,14 +11305,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45285</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11320,7 +11325,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11357,14 +11362,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45239</v>
+        <v>45247</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11377,7 +11382,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11414,14 +11419,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44565</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11434,7 +11439,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11471,14 +11476,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>45285</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11491,7 +11496,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11528,14 +11533,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44474</v>
+        <v>45239</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11548,7 +11553,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11585,14 +11590,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44990</v>
+        <v>44565</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11605,7 +11610,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11642,14 +11647,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11662,7 +11667,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11699,14 +11704,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45597</v>
+        <v>44990</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11719,7 +11724,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11756,14 +11761,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44859</v>
+        <v>45597</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11776,7 +11781,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11813,14 +11818,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>44859</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11833,7 +11838,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11870,14 +11875,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>44918</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11890,7 +11895,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11927,14 +11932,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44918</v>
+        <v>45306</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11947,7 +11952,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11984,14 +11989,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45306</v>
+        <v>46013</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12004,7 +12009,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12048,7 +12053,7 @@
         <v>44859</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12105,7 +12110,7 @@
         <v>44859</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12162,7 +12167,7 @@
         <v>45630</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12219,7 +12224,7 @@
         <v>44859</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12276,7 +12281,7 @@
         <v>44859</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12326,14 +12331,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44475</v>
+        <v>46013</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12346,7 +12351,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12383,14 +12388,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45191</v>
+        <v>44475</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12403,7 +12408,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12440,14 +12445,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45191</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12460,7 +12465,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12497,14 +12502,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44468</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12517,7 +12522,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12554,14 +12559,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45056</v>
+        <v>44468</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12611,14 +12616,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45109</v>
+        <v>45056</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12631,7 +12636,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12668,14 +12673,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44617</v>
+        <v>45109</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12687,13 +12692,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12730,14 +12730,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44893</v>
+        <v>44617</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12749,8 +12749,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12787,14 +12792,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>44893</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12807,7 +12812,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12844,14 +12849,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44990</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12864,7 +12869,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.6</v>
+        <v>0.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12901,14 +12906,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44993</v>
+        <v>44990</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12920,13 +12925,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>18.6</v>
+        <v>3.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12963,14 +12963,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45705</v>
+        <v>44993</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12982,8 +12982,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>18.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13020,14 +13025,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45755</v>
+        <v>45705</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13040,7 +13045,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13077,14 +13082,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45623</v>
+        <v>45755</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13097,7 +13102,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13134,14 +13139,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45302</v>
+        <v>45623</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13154,7 +13159,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13191,14 +13196,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45237</v>
+        <v>46023</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13211,7 +13216,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13248,14 +13253,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45302</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13267,13 +13272,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13310,14 +13310,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44470</v>
+        <v>45237</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13367,14 +13367,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44651</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13388,11 +13388,11 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G216" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13429,14 +13429,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>44470</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13486,14 +13486,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>44651</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13505,8 +13505,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13543,14 +13548,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45072</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13562,13 +13567,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13605,14 +13605,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44358</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13662,14 +13662,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44387</v>
+        <v>45072</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13681,8 +13681,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13719,14 +13724,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45194</v>
+        <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13739,7 +13744,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13776,14 +13781,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44979</v>
+        <v>44387</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13796,7 +13801,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13833,14 +13838,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44565</v>
+        <v>45194</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13853,7 +13858,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>13.4</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13890,14 +13895,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>44979</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13910,7 +13915,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>8.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13947,14 +13952,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44725</v>
+        <v>44565</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13967,7 +13972,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>13.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14004,14 +14009,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44791</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14024,7 +14029,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8.800000000000001</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14061,14 +14066,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>44725</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14081,7 +14086,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14118,14 +14123,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45076</v>
+        <v>44791</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14138,7 +14143,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14175,14 +14180,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14194,13 +14199,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14237,14 +14237,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45076</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14294,14 +14294,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14356,14 +14356,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14413,14 +14413,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45615</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14432,8 +14432,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>8.9</v>
+        <v>1.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14470,14 +14475,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45448</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14490,7 +14495,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14527,14 +14532,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45615</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14547,7 +14552,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.4</v>
+        <v>8.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14584,14 +14589,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45448</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14604,7 +14609,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14641,14 +14646,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45321</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14661,7 +14666,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14698,14 +14703,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44938</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14718,7 +14723,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14755,14 +14760,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>45321</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14775,7 +14780,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14812,14 +14817,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>44938</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14832,7 +14837,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14869,14 +14874,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14889,7 +14894,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14926,14 +14931,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45174</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14946,7 +14951,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14983,14 +14988,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45552</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15003,7 +15008,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15040,14 +15045,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45021</v>
+        <v>45174</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15060,7 +15065,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15097,14 +15102,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44762</v>
+        <v>45552</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15116,13 +15121,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G246" t="n">
-        <v>10.5</v>
+        <v>1.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15159,14 +15159,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45021</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15216,14 +15216,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45110</v>
+        <v>44762</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15235,8 +15235,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>2.3</v>
+        <v>10.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15273,14 +15278,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44671</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15293,7 +15298,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15330,14 +15335,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45317</v>
+        <v>45110</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15350,7 +15355,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15387,14 +15392,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44961</v>
+        <v>44671</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15407,7 +15412,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.2</v>
+        <v>2.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15444,14 +15449,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45317</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15464,7 +15469,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15501,14 +15506,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>44961</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15521,7 +15526,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.2</v>
+        <v>5.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15558,14 +15563,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15577,13 +15582,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15620,14 +15620,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45418</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15640,7 +15640,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>5.4</v>
+        <v>2.2</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15677,14 +15677,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45440</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15696,8 +15696,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15734,14 +15739,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15754,7 +15759,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15791,14 +15796,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45051</v>
+        <v>45440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15811,7 +15816,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15848,14 +15853,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45210</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15868,7 +15873,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15905,14 +15910,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>45051</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15925,7 +15930,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15962,14 +15967,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45210</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15982,7 +15987,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16019,14 +16024,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45281</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16039,7 +16044,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16076,14 +16081,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44798</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16096,7 +16101,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16133,14 +16138,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45594</v>
+        <v>45281</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16153,7 +16158,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16190,14 +16195,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44798</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16209,13 +16214,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16252,14 +16252,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>45594</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16271,13 +16271,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16314,14 +16309,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16335,11 +16330,11 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16376,14 +16371,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44573</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16395,8 +16390,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16433,14 +16433,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45076</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16452,8 +16452,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16490,14 +16495,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44608</v>
+        <v>44573</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16510,7 +16515,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16547,14 +16552,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44594</v>
+        <v>45076</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16567,7 +16572,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16604,14 +16609,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44910</v>
+        <v>44608</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16623,13 +16628,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G272" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16666,14 +16666,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45630</v>
+        <v>44594</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16723,14 +16723,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>44910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16742,8 +16742,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16780,14 +16785,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45135</v>
+        <v>45630</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16799,13 +16804,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16842,14 +16842,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44496</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16899,14 +16899,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45135</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16918,8 +16918,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16956,14 +16961,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44938</v>
+        <v>44496</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16976,7 +16981,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17013,14 +17018,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17033,7 +17038,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17070,14 +17075,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44744</v>
+        <v>44938</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17090,7 +17095,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17124,17 +17129,17 @@
       </c>
       <c r="R280" s="2" t="inlineStr"/>
     </row>
-    <row r="281" ht="15" customHeight="1">
+    <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17146,13 +17151,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G281" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17185,120 +17185,6 @@
         <v>0</v>
       </c>
       <c r="R281" s="2" t="inlineStr"/>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>A 16069-2025</t>
-        </is>
-      </c>
-      <c r="B282" s="1" t="n">
-        <v>45749</v>
-      </c>
-      <c r="C282" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G282" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="n">
-        <v>0</v>
-      </c>
-      <c r="K282" t="n">
-        <v>0</v>
-      </c>
-      <c r="L282" t="n">
-        <v>0</v>
-      </c>
-      <c r="M282" t="n">
-        <v>0</v>
-      </c>
-      <c r="N282" t="n">
-        <v>0</v>
-      </c>
-      <c r="O282" t="n">
-        <v>0</v>
-      </c>
-      <c r="P282" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q282" t="n">
-        <v>0</v>
-      </c>
-      <c r="R282" s="2" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>A 54390-2023</t>
-        </is>
-      </c>
-      <c r="B283" s="1" t="n">
-        <v>45226</v>
-      </c>
-      <c r="C283" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G283" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="n">
-        <v>0</v>
-      </c>
-      <c r="K283" t="n">
-        <v>0</v>
-      </c>
-      <c r="L283" t="n">
-        <v>0</v>
-      </c>
-      <c r="M283" t="n">
-        <v>0</v>
-      </c>
-      <c r="N283" t="n">
-        <v>0</v>
-      </c>
-      <c r="O283" t="n">
-        <v>0</v>
-      </c>
-      <c r="P283" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q283" t="n">
-        <v>0</v>
-      </c>
-      <c r="R283" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 66243-2021</t>
+          <t>A 24223-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44518</v>
+        <v>44336</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1167,45 +1167,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58185-2025</t>
+          <t>A 32279-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45983.47664351852</v>
+        <v>45109</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>11.8</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1252,35 +1252,31 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Mindre hackspett</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
@@ -1294,7 +1290,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1379,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,14 +1466,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 59810-2025</t>
+          <t>A 58185-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45992.63174768518</v>
+        <v>45983.47664351852</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1489,13 +1485,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1504,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1519,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1529,289 +1520,298 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 66243-2021</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44518</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 66246-2021</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44518</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5.2</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 24223-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 32279-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45109</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 7821-2022</t>
+          <t>A 14537-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44608</v>
+        <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2042,8 +2042,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2080,14 +2085,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 14537-2022</t>
+          <t>A 10438-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44655</v>
+        <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2099,13 +2104,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 10438-2022</t>
+          <t>A 7821-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44623</v>
+        <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2199,14 +2199,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 36439-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44390.91925925926</v>
+        <v>44263</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 36439-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44263</v>
+        <v>44390.91925925926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>44480</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,14 +2427,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 54980-2021</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44474</v>
+        <v>44525</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 18744-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44525</v>
+        <v>44307</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>17.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 18744-2021</t>
+          <t>A 54980-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44307</v>
+        <v>44474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17.6</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44389</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44617</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44425</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44307</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44323</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44263</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44655</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44680</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>44387</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4717,14 +4717,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44651</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4736,13 +4736,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4779,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44830</v>
+        <v>44725</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4836,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45755</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4855,8 +4850,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4893,14 +4893,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4912,8 +4912,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4950,14 +4955,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>45884</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4975,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5012,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5032,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5069,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>44594</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5089,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5126,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44744</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5146,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5183,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>44263</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5203,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5235,14 +5240,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>44918</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5260,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5292,14 +5297,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45884</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5311,8 +5316,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5349,14 +5359,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45483</v>
+        <v>45321</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5379,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5406,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5431,7 +5441,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5475,7 +5485,7 @@
         <v>45749</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5525,14 +5535,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45226</v>
+        <v>44979</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5555,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5592,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>44859</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5612,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5649,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45184</v>
+        <v>44859</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5658,13 +5668,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5701,14 +5706,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45036</v>
+        <v>44358</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5721,7 +5726,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5758,14 +5763,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5777,8 +5782,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5825,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45598</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5834,8 +5844,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5872,14 +5887,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44496</v>
+        <v>44744</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5892,7 +5907,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5944,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45226</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5949,7 +5964,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5986,14 +6001,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45343</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6006,7 +6021,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6043,14 +6058,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>45432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6063,7 +6078,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6100,14 +6115,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45594</v>
+        <v>45306</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6119,13 +6134,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6162,14 +6172,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44937</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6182,7 +6192,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6229,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>45598</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6239,7 +6249,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6276,14 +6286,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45938.5725</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6295,8 +6305,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>17.1</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6333,14 +6348,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6358,7 +6373,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.7</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6395,14 +6410,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44593</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6414,8 +6429,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6452,14 +6472,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44594</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6472,7 +6492,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>6.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6509,14 +6529,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45905</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6528,13 +6548,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>15.9</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6571,14 +6586,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45905</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6590,13 +6605,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6633,14 +6643,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45905</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6653,7 +6663,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6690,14 +6700,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>45594</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6709,8 +6719,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6747,14 +6762,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>45905</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6767,7 +6782,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6804,14 +6819,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>45905</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6824,7 +6839,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6861,14 +6876,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45905</v>
+        <v>45529</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6881,7 +6896,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6918,14 +6933,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6938,7 +6953,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6975,14 +6990,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45905</v>
+        <v>44903</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6995,7 +7010,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7032,14 +7047,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44999</v>
+        <v>44476</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7051,13 +7066,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7094,14 +7104,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45905</v>
+        <v>44496</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7114,7 +7124,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7151,14 +7161,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>45905</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7171,7 +7181,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7208,14 +7218,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45905</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7227,8 +7237,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>10.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7265,14 +7280,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7284,13 +7299,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>17.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7327,14 +7337,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45905</v>
+        <v>44475</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7347,7 +7357,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7384,14 +7394,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45076</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7404,7 +7414,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7441,14 +7451,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45076</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7461,7 +7471,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7498,14 +7508,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44623</v>
+        <v>44511</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7518,7 +7528,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7555,14 +7565,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44476</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7575,7 +7585,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7612,14 +7622,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7632,7 +7642,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7669,14 +7679,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45918</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7689,7 +7699,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7726,14 +7736,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7783,14 +7793,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45448</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7803,7 +7813,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7840,14 +7850,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>45923</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7860,7 +7870,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7897,14 +7907,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44903</v>
+        <v>45924</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7917,7 +7927,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7954,14 +7964,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44678</v>
+        <v>45924</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7974,7 +7984,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8011,14 +8021,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>44407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8031,7 +8041,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8068,14 +8078,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45041</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8088,7 +8098,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8125,14 +8135,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44421</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8145,7 +8155,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8182,14 +8192,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45918</v>
+        <v>44617</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8201,8 +8211,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8239,14 +8254,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45923</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8259,7 +8274,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8296,14 +8311,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44407</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8316,7 +8331,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8353,14 +8368,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45924</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8372,8 +8387,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8410,14 +8430,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45924</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8430,7 +8450,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8467,14 +8487,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44918</v>
+        <v>45041</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8487,7 +8507,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8524,14 +8544,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>44421</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8544,7 +8564,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8581,14 +8601,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45561</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8601,7 +8621,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>16.5</v>
+        <v>0.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8638,14 +8658,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45096</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8657,13 +8677,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8700,14 +8715,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45210</v>
+        <v>44671</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8720,7 +8735,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8757,14 +8772,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45432</v>
+        <v>45056</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8777,7 +8792,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8814,14 +8829,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45754</v>
+        <v>45561</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8833,13 +8848,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G137" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8876,14 +8886,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44511</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8896,7 +8906,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8933,14 +8943,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45236</v>
+        <v>45594</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8953,7 +8963,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8990,14 +9000,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45938.5725</v>
+        <v>44938</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9009,13 +9019,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9052,14 +9057,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9077,7 +9082,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9114,14 +9119,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9133,13 +9138,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9176,14 +9176,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45428</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9195,8 +9195,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>3.7</v>
+        <v>15.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9233,14 +9238,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9252,13 +9257,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9295,14 +9295,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9314,13 +9314,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9357,14 +9352,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45175</v>
+        <v>45705</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9377,7 +9372,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9414,14 +9409,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9433,13 +9428,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>8.199999999999999</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9476,14 +9466,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9495,8 +9485,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9533,14 +9528,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44685</v>
+        <v>45552</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9553,7 +9548,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9590,14 +9585,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44320</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9610,7 +9605,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9647,14 +9642,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>45623</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9667,7 +9662,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9704,14 +9699,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45733</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9724,7 +9719,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9761,14 +9756,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44452</v>
+        <v>45733</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9781,7 +9776,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9818,14 +9813,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>44474</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9837,13 +9832,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>10.7</v>
+        <v>2.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9880,14 +9870,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>44685</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9900,7 +9890,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9937,14 +9927,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9957,7 +9947,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9994,14 +9984,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10014,7 +10004,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>10.4</v>
+        <v>2.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10051,14 +10041,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10108,14 +10098,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44902</v>
+        <v>44496</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10128,7 +10118,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10165,14 +10155,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10185,7 +10175,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>10.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10222,14 +10212,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>44999</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10241,8 +10231,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10279,14 +10274,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10299,7 +10294,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10336,14 +10331,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45529</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10356,7 +10351,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10393,14 +10388,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45096</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10412,8 +10407,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10450,14 +10450,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10507,14 +10507,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44474</v>
+        <v>45483</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10564,14 +10564,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10621,14 +10621,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>45051</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10678,14 +10678,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45191</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10735,14 +10735,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44263</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10792,14 +10792,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44943</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10849,14 +10849,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45715</v>
+        <v>45440</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10906,14 +10906,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44594</v>
+        <v>44945.4825</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10963,14 +10963,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11020,14 +11020,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44496</v>
+        <v>45237</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11077,14 +11077,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>45236</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11134,14 +11134,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11191,14 +11191,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44573</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11248,14 +11248,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>46013</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11305,14 +11305,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45076</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11362,14 +11362,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45247</v>
+        <v>46013</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11419,14 +11419,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>44470</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11476,14 +11476,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45285</v>
+        <v>45076</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11533,14 +11533,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45239</v>
+        <v>44468</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11590,14 +11590,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44565</v>
+        <v>45615</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11647,14 +11647,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>44452</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11704,14 +11704,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44990</v>
+        <v>44918</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11761,14 +11761,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45597</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11818,14 +11818,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44859</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11837,8 +11837,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11875,14 +11880,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44918</v>
+        <v>45021</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11895,7 +11900,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11932,14 +11937,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45306</v>
+        <v>44961</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11952,7 +11957,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11989,14 +11994,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46013</v>
+        <v>44623</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12009,7 +12014,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12046,14 +12051,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44859</v>
+        <v>44938</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12066,7 +12071,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12103,14 +12108,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44859</v>
+        <v>46023</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12123,7 +12128,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12160,14 +12165,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45630</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12217,14 +12222,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
         <v>44859</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12237,7 +12242,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12274,14 +12279,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44859</v>
+        <v>44937</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12294,7 +12299,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12331,14 +12336,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46013</v>
+        <v>44990</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12351,7 +12356,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12388,14 +12393,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44475</v>
+        <v>45428</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12408,7 +12413,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12445,14 +12450,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45191</v>
+        <v>45174</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12465,7 +12470,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12502,14 +12507,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12522,7 +12527,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12559,14 +12564,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44468</v>
+        <v>45302</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12579,7 +12584,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12616,14 +12621,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45056</v>
+        <v>45418</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12636,7 +12641,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12673,14 +12678,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45109</v>
+        <v>44993</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12692,8 +12697,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>18.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12730,14 +12740,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44617</v>
+        <v>44573</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12749,13 +12759,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12792,14 +12797,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44893</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12812,7 +12817,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12849,14 +12854,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>45754</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12868,8 +12873,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12906,14 +12916,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44990</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12925,8 +12935,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12963,14 +12978,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44993</v>
+        <v>44594</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12982,13 +12997,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G209" t="n">
-        <v>18.6</v>
+        <v>1.2</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13025,14 +13035,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45705</v>
+        <v>45630</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13045,7 +13055,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13082,14 +13092,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45755</v>
+        <v>45036</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13102,7 +13112,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13139,14 +13149,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45623</v>
+        <v>44593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13159,7 +13169,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13196,14 +13206,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46023</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13216,7 +13226,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13253,14 +13263,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45302</v>
+        <v>44651</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13272,8 +13282,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13310,14 +13325,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45237</v>
+        <v>45076</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13330,7 +13345,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13367,14 +13382,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>44594</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13386,13 +13401,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13429,14 +13439,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44470</v>
+        <v>44565</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13449,7 +13459,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13486,14 +13496,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44651</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13505,13 +13515,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13548,14 +13553,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45239</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13568,7 +13573,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13605,14 +13610,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13625,7 +13630,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13662,14 +13667,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45072</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13687,7 +13692,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13724,14 +13729,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44358</v>
+        <v>44651</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13743,8 +13748,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13781,14 +13791,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44387</v>
+        <v>45109</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13801,7 +13811,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13838,14 +13848,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45194</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13857,8 +13867,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13895,14 +13910,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44979</v>
+        <v>44762</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13914,8 +13929,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13952,14 +13972,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44565</v>
+        <v>45247</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13972,7 +13992,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>13.4</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14009,14 +14029,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14029,7 +14049,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14066,14 +14086,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44725</v>
+        <v>44791</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14086,7 +14106,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14123,14 +14143,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44791</v>
+        <v>45194</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14143,7 +14163,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.800000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14180,14 +14200,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45135</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14199,8 +14219,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>9.1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14237,14 +14262,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45076</v>
+        <v>45755</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14257,7 +14282,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14294,14 +14319,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14313,13 +14338,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14356,14 +14376,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14376,7 +14396,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14413,14 +14433,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>45755</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14432,13 +14452,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14475,14 +14490,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>45715</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14495,7 +14510,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14532,14 +14547,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45615</v>
+        <v>45317</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14552,7 +14567,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>8.9</v>
+        <v>2.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14589,14 +14604,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45448</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14609,7 +14624,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14646,14 +14661,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14666,7 +14681,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14703,14 +14718,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45210</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14723,7 +14738,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14760,14 +14775,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45321</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14779,8 +14794,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14817,14 +14837,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44938</v>
+        <v>44678</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14837,7 +14857,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14874,14 +14894,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>44608</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14894,7 +14914,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14931,14 +14951,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14951,7 +14971,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14988,14 +15008,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15008,7 +15028,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15045,14 +15065,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45174</v>
+        <v>44990</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15065,7 +15085,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15102,14 +15122,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45552</v>
+        <v>45210</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15122,7 +15142,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15159,14 +15179,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45021</v>
+        <v>44910</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15178,8 +15198,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>0.3</v>
+        <v>4.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15216,14 +15241,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44762</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15235,13 +15260,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15278,14 +15298,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15298,7 +15318,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15335,14 +15355,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45110</v>
+        <v>44798</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15355,7 +15375,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15392,14 +15412,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44671</v>
+        <v>45343</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15412,7 +15432,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15449,14 +15469,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45317</v>
+        <v>45072</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15468,8 +15488,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15506,14 +15531,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44961</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15526,7 +15551,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.2</v>
+        <v>9.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15563,14 +15588,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15583,7 +15608,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15620,14 +15645,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>44565</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15640,7 +15665,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.2</v>
+        <v>13.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15677,14 +15702,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>44573</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15696,13 +15721,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15739,14 +15759,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45418</v>
+        <v>44859</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15759,7 +15779,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15796,14 +15816,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45440</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15816,7 +15836,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15853,14 +15873,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>45597</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15873,7 +15893,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15910,14 +15930,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45051</v>
+        <v>45076</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15930,7 +15950,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15967,14 +15987,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45210</v>
+        <v>45110</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15987,7 +16007,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16024,14 +16044,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>45175</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16044,7 +16064,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16081,14 +16101,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45281</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16101,7 +16121,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16138,14 +16158,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45281</v>
+        <v>44830</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16158,7 +16178,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16195,14 +16215,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44798</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16215,7 +16235,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16252,14 +16272,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45594</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16272,7 +16292,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16309,14 +16329,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16328,13 +16348,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16371,14 +16386,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16390,13 +16405,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G268" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16433,14 +16443,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>44859</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16452,13 +16462,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16495,14 +16500,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44573</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16515,7 +16520,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16552,14 +16557,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45076</v>
+        <v>45184</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16571,8 +16576,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16609,14 +16619,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44608</v>
+        <v>44893</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16629,7 +16639,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16666,14 +16676,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44594</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16686,7 +16696,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16723,14 +16733,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44910</v>
+        <v>45630</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16742,13 +16752,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16785,14 +16790,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45630</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16805,7 +16810,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16842,14 +16847,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>44320</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16862,7 +16867,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16899,14 +16904,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45135</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16918,13 +16923,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16961,14 +16961,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44496</v>
+        <v>45285</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17018,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17075,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44938</v>
+        <v>44902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17132,14 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>44943</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1113,14 +1113,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 24223-2021</t>
+          <t>A 66243-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44336</v>
+        <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1167,45 +1167,45 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blomkålssvamp</t>
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 32279-2023</t>
+          <t>A 66246-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45109</v>
+        <v>44518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1252,45 +1252,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 57938-2025</t>
+          <t>A 58185-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45982.28196759259</v>
+        <v>45983.47664351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1341,217 +1341,217 @@
         </is>
       </c>
       <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 58554-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45986.33541666667</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>2.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 58185-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45983.47664351852</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 66243-2021</t>
+          <t>A 24223-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44518</v>
+        <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1699,45 +1699,45 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Blomkålssvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66243-2021 artfynd.xlsx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66243-2021 karta.png", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66243-2021 FSC-klagomål.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66243-2021 FSC-klagomål mail.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66243-2021 tillsynsbegäran.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66243-2021 tillsynsbegäran mail.docx", "A 66243-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 66246-2021</t>
+          <t>A 32279-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44518</v>
+        <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1784,31 +1784,31 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 66246-2021 artfynd.xlsx", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 66246-2021 karta.png", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 66246-2021 FSC-klagomål.docx", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 66246-2021 FSC-klagomål mail.docx", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 66246-2021 tillsynsbegäran.docx", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 66246-2021 tillsynsbegäran mail.docx", "A 66246-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
         <v/>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2199,14 +2199,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 36439-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44263</v>
+        <v>44390.91925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 36439-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44390.91925925926</v>
+        <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>44480</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2427,14 +2427,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 67835-2021</t>
+          <t>A 54980-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44525</v>
+        <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2541,14 +2541,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18744-2021</t>
+          <t>A 67835-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44307</v>
+        <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>17.6</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54980-2021</t>
+          <t>A 18744-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44474</v>
+        <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>17.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>44389</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44617</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44425</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44307</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3681,14 +3681,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44323</v>
+        <v>44277</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3700,13 +3700,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3743,14 +3738,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44277</v>
+        <v>44323</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3762,8 +3757,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44263</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44655</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44680</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35893-2021</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44387</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4717,14 +4717,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>45755</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24106-2022</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44725</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4831,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 13185-2025</t>
+          <t>A 42146-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45735.38707175926</v>
+        <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4850,13 +4850,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4893,14 +4888,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13192-2025</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45735.41219907408</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4912,13 +4907,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4955,14 +4945,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45884</v>
+        <v>44651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4974,8 +4964,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5012,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44496</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5032,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5069,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 8465-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44594</v>
+        <v>44977.49680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5089,7 +5084,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5126,14 +5121,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20666-2025</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45776.42706018518</v>
+        <v>45483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5146,7 +5141,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5183,14 +5178,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 44607-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44263</v>
+        <v>45184</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5202,8 +5197,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5240,14 +5240,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44918</v>
+        <v>45036</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5297,14 +5297,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5314,11 +5314,6 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -5359,14 +5354,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 3748-2024</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45321</v>
+        <v>44496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5379,7 +5374,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5416,14 +5411,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 18788-2025</t>
+          <t>A 14597-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45764.34427083333</v>
+        <v>45013.59376157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5435,13 +5430,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5478,14 +5468,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16069-2025</t>
+          <t>A 7136-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45749</v>
+        <v>45343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5498,7 +5488,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.7</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5535,14 +5525,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10154-2023</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44979</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5555,7 +5545,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5592,14 +5582,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44859</v>
+        <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5612,7 +5602,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5649,14 +5639,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44859</v>
+        <v>44593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5669,7 +5659,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5706,14 +5696,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 29166-2021</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44358</v>
+        <v>44594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5726,7 +5716,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5763,14 +5753,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5788,7 +5778,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5825,14 +5815,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14073-2025</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45740.43017361111</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5844,13 +5834,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5887,14 +5872,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28003-2022</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44744</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5907,7 +5892,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5944,14 +5929,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 54390-2023</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45226</v>
+        <v>44999</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5963,8 +5948,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6001,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45426-2024</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45576.60533564815</v>
+        <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6021,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6058,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45432</v>
+        <v>45076</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6078,7 +6068,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6115,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45306</v>
+        <v>45076</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6135,7 +6125,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6172,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16986-2025</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45755.48917824074</v>
+        <v>44476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6192,7 +6182,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6229,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 50100-2024</t>
+          <t>A 1714-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45598</v>
+        <v>44938.45767361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6249,7 +6239,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6286,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45938.5725</v>
+        <v>44903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6305,13 +6295,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6348,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>44678</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6365,11 +6350,6 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -6410,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>44421</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6429,13 +6409,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6472,14 +6447,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>45041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6492,7 +6467,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6529,14 +6504,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 27960-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45905</v>
+        <v>45817.54246527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6549,7 +6524,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6586,14 +6561,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45905</v>
+        <v>44407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6606,7 +6581,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6643,14 +6618,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45905</v>
+        <v>45884</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6663,7 +6638,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6700,14 +6675,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 48875-2024</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45594</v>
+        <v>44918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6719,13 +6694,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6762,14 +6732,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 45425-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45905</v>
+        <v>45576.60469907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6782,7 +6752,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6819,14 +6789,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 28150-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45905</v>
+        <v>45818.35171296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6839,7 +6809,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6876,14 +6846,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45529</v>
+        <v>45096</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6895,8 +6865,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>6.3</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6933,14 +6908,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45905</v>
+        <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6953,7 +6928,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6990,14 +6965,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44903</v>
+        <v>45432</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7010,7 +6985,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7047,14 +7022,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44476</v>
+        <v>45754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7066,8 +7041,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7104,14 +7084,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7124,7 +7104,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7161,14 +7141,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45905</v>
+        <v>45236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7181,7 +7161,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7218,14 +7198,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 41953-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7237,13 +7217,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>10.7</v>
+        <v>16.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7280,14 +7255,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45422-2024</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45576.60320601852</v>
+        <v>45428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7300,7 +7275,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>17.1</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7337,14 +7312,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 42084-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44475</v>
+        <v>45175</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7357,7 +7332,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7394,14 +7369,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 42455-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7414,7 +7389,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7451,14 +7426,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 42416-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7471,7 +7446,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7508,14 +7483,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 42438-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44511</v>
+        <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7528,7 +7503,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7565,14 +7540,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 42407-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7585,7 +7560,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7622,14 +7597,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 42410-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7642,7 +7617,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7679,14 +7654,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 42404-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7699,7 +7674,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7736,14 +7711,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 42446-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7756,7 +7731,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7793,14 +7768,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22866-2024</t>
+          <t>A 22095-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45448</v>
+        <v>44320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7813,7 +7788,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>7.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7850,14 +7825,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45923</v>
+        <v>44452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7870,7 +7845,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7907,14 +7882,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 25493-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45924</v>
+        <v>45803.33516203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7927,7 +7902,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7964,14 +7939,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 18241-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45924</v>
+        <v>44685</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7984,7 +7959,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8021,14 +7996,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 27341-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44407</v>
+        <v>44742.39807870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8041,7 +8016,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8078,14 +8053,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 12714-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45733</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8098,7 +8073,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8135,14 +8110,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 45083-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8155,7 +8130,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8192,14 +8167,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 9543-2022</t>
+          <t>A 45731-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44617</v>
+        <v>45923</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8211,13 +8186,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8254,14 +8224,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8274,7 +8244,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8311,14 +8281,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 59988-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>44902</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8331,7 +8301,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8368,14 +8338,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 46256-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>45924</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8387,13 +8357,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>6.7</v>
+        <v>1.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8430,14 +8395,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 46239-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>45924</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8450,7 +8415,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8487,14 +8452,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45041</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8507,7 +8472,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8544,14 +8509,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44421</v>
+        <v>45529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8564,7 +8529,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>6.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8601,14 +8566,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 34441-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>45525.54172453703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8621,7 +8586,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>10.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8658,14 +8623,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 63764-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>45278.34112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8678,7 +8643,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8715,14 +8680,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 16495-2022</t>
+          <t>A 58908-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44671</v>
+        <v>45636.48037037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8735,7 +8700,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8772,14 +8737,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 20427-2023</t>
+          <t>A 37740-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45056</v>
+        <v>45880.65108796296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8792,7 +8757,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8829,14 +8794,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45561</v>
+        <v>44945.4825</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8849,7 +8814,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>16.5</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8886,14 +8851,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 1460-2023</t>
+          <t>A 49319-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44937.4102662037</v>
+        <v>45938.5725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8905,8 +8870,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8943,14 +8913,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49153-2024</t>
+          <t>A 49330-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45594</v>
+        <v>45938.58097222223</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8962,8 +8932,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9000,14 +8975,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 1721-2023</t>
+          <t>A 49336-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44938</v>
+        <v>45938.58679398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9019,8 +8994,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9057,14 +9037,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 2586-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>44943</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9076,13 +9056,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9119,14 +9094,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 57909-2025</t>
+          <t>A 49322-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45981.79150462963</v>
+        <v>45938.57336805556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9138,8 +9113,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9176,14 +9156,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 49326-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>45938.57447916667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9201,7 +9181,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>15.9</v>
+        <v>3.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9238,14 +9218,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 3676-2023</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44950.88934027778</v>
+        <v>45715</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9258,7 +9238,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9295,14 +9275,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58174-2025</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45982.76020833333</v>
+        <v>44263</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9315,7 +9295,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9352,14 +9332,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 7537-2025</t>
+          <t>A 465-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45705</v>
+        <v>45297.57143518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9372,7 +9352,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9409,14 +9389,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44594</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9429,7 +9409,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9466,14 +9446,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58553-2025</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45986.33349537037</v>
+        <v>44496</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9485,13 +9465,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>8.199999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9528,14 +9503,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 39779-2024</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45552</v>
+        <v>44573</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9548,7 +9523,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9585,14 +9560,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 58801-2025</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45986.86888888889</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9605,7 +9580,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9642,14 +9617,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 55994-2024</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45623</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9662,7 +9637,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9699,14 +9674,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 58806-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>45247</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9719,7 +9694,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9756,14 +9731,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 65066-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45733</v>
+        <v>45285</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9776,7 +9751,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9813,14 +9788,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 54978-2021</t>
+          <t>A 52433-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44474</v>
+        <v>45954.38760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9832,8 +9807,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>2.7</v>
+        <v>10.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9870,14 +9850,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44685</v>
+        <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9890,7 +9870,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9927,14 +9907,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60032-2025</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45993.61269675926</v>
+        <v>44565</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9947,7 +9927,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9984,14 +9964,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60021-2025</t>
+          <t>A 53316-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45993.60136574074</v>
+        <v>45959.3483449074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10004,7 +9984,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10041,14 +10021,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2601-2026</t>
+          <t>A 11376-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>46037.57427083333</v>
+        <v>44990</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10061,7 +10041,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10098,14 +10078,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 50099-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44496</v>
+        <v>45597</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10118,7 +10098,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10155,14 +10135,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>44859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10175,7 +10155,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>10.4</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10212,14 +10192,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44999</v>
+        <v>44918</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10231,13 +10211,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10274,14 +10249,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60467-2025</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45995.56089120371</v>
+        <v>45306</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10294,7 +10269,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10331,14 +10306,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 55303-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>45970.46565972222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10351,7 +10326,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10388,14 +10363,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 55158-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45096</v>
+        <v>45968.46606481481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10407,13 +10382,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>2.5</v>
+        <v>7.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10450,14 +10420,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 61578-2025</t>
+          <t>A 55167-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46002.33396990741</v>
+        <v>45968.48377314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10470,7 +10440,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10507,14 +10477,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 48620-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45483</v>
+        <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10527,7 +10497,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10564,14 +10534,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 61576-2025</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46002.32325231482</v>
+        <v>44859</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10621,14 +10591,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 20192-2023</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45051</v>
+        <v>45630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10641,7 +10611,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10678,14 +10648,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 48631-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45191</v>
+        <v>44859</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10698,7 +10668,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10735,14 +10705,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 466-2024</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45297.57569444444</v>
+        <v>44859</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10755,7 +10725,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10792,14 +10762,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20301-2025</t>
+          <t>A 56814-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45774.79278935185</v>
+        <v>45978.4571412037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10811,8 +10781,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10849,14 +10824,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 21160-2024</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45440</v>
+        <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10869,7 +10844,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10906,14 +10881,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 57862-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45981.64251157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10925,8 +10900,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>2.3</v>
+        <v>15.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10963,14 +10943,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 55640-2022</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44888.46519675926</v>
+        <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10983,7 +10963,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11020,14 +11000,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 55092-2023</t>
+          <t>A 57393-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45237</v>
+        <v>45980.42552083333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11040,7 +11020,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11077,14 +11057,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 57402-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45236</v>
+        <v>45980.43471064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11097,7 +11077,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11134,14 +11114,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 19861-2023</t>
+          <t>A 57859-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45053.90454861111</v>
+        <v>45981.64037037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11153,8 +11133,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11191,14 +11176,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 58176-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>45982.76739583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11211,7 +11196,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11248,14 +11233,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 64114-2025</t>
+          <t>A 57909-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46013</v>
+        <v>45981.79150462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11268,7 +11253,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11305,14 +11290,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 58174-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45076</v>
+        <v>45982.76020833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11325,7 +11310,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11362,14 +11347,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 64127-2025</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46013</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11382,7 +11367,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11419,14 +11404,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 54112-2021</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11439,7 +11424,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11476,14 +11461,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45076</v>
+        <v>45056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11496,7 +11481,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11533,14 +11518,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 53863-2021</t>
+          <t>A 58553-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44468</v>
+        <v>45986.33349537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11552,8 +11537,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11590,14 +11580,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 54051-2024</t>
+          <t>A 58801-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45615</v>
+        <v>45986.86888888889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11610,7 +11600,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8.9</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11647,14 +11637,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 32273-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44452</v>
+        <v>45109</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11667,7 +11657,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11704,14 +11694,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44918</v>
+        <v>44617</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11723,8 +11713,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11761,14 +11756,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 58224-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>44893</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11781,7 +11776,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11818,14 +11813,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 36649-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>45153.56041666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11837,13 +11832,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11880,14 +11870,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 16071-2023</t>
+          <t>A 60032-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45021</v>
+        <v>45993.61269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11900,7 +11890,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11937,14 +11927,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 6553-2023</t>
+          <t>A 54978-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44961</v>
+        <v>44474</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11957,7 +11947,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11994,14 +11984,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44623</v>
+        <v>44990</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12014,7 +12004,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12051,14 +12041,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 1826-2023</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44938</v>
+        <v>44993</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12070,8 +12060,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>18.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12108,14 +12103,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 609-2026</t>
+          <t>A 60021-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46023</v>
+        <v>45993.60136574074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12128,7 +12123,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.4</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12165,14 +12160,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 63584-2023</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45275.41878472222</v>
+        <v>45705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12185,7 +12180,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12222,14 +12217,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44859</v>
+        <v>45755</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12242,7 +12237,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12279,14 +12274,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44937</v>
+        <v>45623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12299,7 +12294,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12336,14 +12331,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 11371-2023</t>
+          <t>A 2601-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44990</v>
+        <v>46037.57427083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12356,7 +12351,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12393,14 +12388,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 60467-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45428</v>
+        <v>45995.56089120371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12413,7 +12408,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12450,14 +12445,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 41870-2023</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45174</v>
+        <v>45302</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12470,7 +12465,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12507,14 +12502,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8442-2023</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44977.47071759259</v>
+        <v>45237</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12527,7 +12522,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12564,14 +12559,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 1128-2024</t>
+          <t>A 45792-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45302</v>
+        <v>45195.46368055556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12583,8 +12578,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12621,14 +12621,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 17768-2024</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45418</v>
+        <v>44470</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12678,14 +12678,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11400-2023</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44993</v>
+        <v>44651</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12699,11 +12699,11 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>18.6</v>
+        <v>4.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12740,14 +12740,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 61576-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44573</v>
+        <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12797,14 +12797,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 6824-2023</t>
+          <t>A 61578-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44967.4024074074</v>
+        <v>46002.33396990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12854,14 +12854,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45754</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12873,13 +12873,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12916,14 +12911,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 18797-2025</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45764.34591435185</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12935,13 +12930,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12978,14 +12968,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 22835-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44594</v>
+        <v>45072</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12997,8 +12987,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G209" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13035,14 +13030,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45630</v>
+        <v>44358</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13055,7 +13050,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13092,14 +13087,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45036</v>
+        <v>44387</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13112,7 +13107,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13149,14 +13144,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44593</v>
+        <v>45194</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13169,7 +13164,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13206,14 +13201,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 42564-2023</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45181.39582175926</v>
+        <v>44979</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13226,7 +13221,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13263,14 +13258,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 14087-2022</t>
+          <t>A 64127-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44651</v>
+        <v>46013</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13282,13 +13277,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13325,14 +13315,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 24405-2023</t>
+          <t>A 356-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45076</v>
+        <v>44565</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13345,7 +13335,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.3</v>
+        <v>13.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13382,14 +13372,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44594</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13402,7 +13392,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13439,14 +13429,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 64114-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44565</v>
+        <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13459,7 +13449,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13496,14 +13486,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 22135-2023</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45069.60496527778</v>
+        <v>44725</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13516,7 +13506,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13553,14 +13543,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45239</v>
+        <v>44791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13573,7 +13563,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13610,14 +13600,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 2270-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>44942.49956018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13630,7 +13620,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.7</v>
+        <v>9.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13667,14 +13657,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 27207-2023</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45096.56784722222</v>
+        <v>45076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13686,13 +13676,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13729,14 +13714,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44651</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13791,14 +13776,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32273-2023</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45109</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13811,7 +13796,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13848,14 +13833,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 45792-2023</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45195.46368055556</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13869,11 +13854,11 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13910,14 +13895,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 30575-2022</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44762</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13929,13 +13914,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>10.5</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13972,14 +13952,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45247</v>
+        <v>45615</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13992,7 +13972,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>8.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14029,14 +14009,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 22866-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>45448</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14049,7 +14029,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14086,14 +14066,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 34159-2022</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44791</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14106,7 +14086,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>8.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14143,14 +14123,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 46420-2023</t>
+          <t>A 609-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45194</v>
+        <v>46023</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14163,7 +14143,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14200,14 +14180,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 34019-2023</t>
+          <t>A 23415-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45135</v>
+        <v>45076.50886574074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14219,13 +14199,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14262,14 +14237,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 17178-2025</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45755</v>
+        <v>45321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14282,7 +14257,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14319,14 +14294,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54742-2023</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45236.40959490741</v>
+        <v>44938</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14339,7 +14314,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14376,14 +14351,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 17797-2025</t>
+          <t>A 19860-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45758.54484953704</v>
+        <v>45053.90079861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14396,7 +14371,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14433,14 +14408,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45755</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14453,7 +14428,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14490,14 +14465,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45715</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14510,7 +14485,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14547,14 +14522,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3304-2024</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45317</v>
+        <v>45174</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14567,7 +14542,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14604,14 +14579,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 41952-2022</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44830.38984953704</v>
+        <v>45552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14624,7 +14599,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14661,14 +14636,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45021</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14681,7 +14656,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14718,14 +14693,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 30575-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45210</v>
+        <v>44762</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14737,8 +14712,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14775,14 +14755,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 32316-2023</t>
+          <t>A 61825-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45120.45346064815</v>
+        <v>44917.58537037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14794,13 +14774,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14837,14 +14812,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 32522-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44678</v>
+        <v>45110</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14857,7 +14832,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14894,14 +14869,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 7825-2022</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44608</v>
+        <v>44671</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14914,7 +14889,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14951,14 +14926,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56627-2023</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45243.69512731482</v>
+        <v>45317</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14971,7 +14946,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15008,14 +14983,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>44961</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15028,7 +15003,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.5</v>
+        <v>5.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15065,14 +15040,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44990</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15085,7 +15060,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15122,14 +15097,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 50751-2023</t>
+          <t>A 30931-2024</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45210</v>
+        <v>45498.80204861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15142,7 +15117,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15179,14 +15154,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 61534-2022</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44910</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15200,11 +15175,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15241,14 +15216,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 30931-2024</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45498.80204861111</v>
+        <v>45418</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15261,7 +15236,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15298,14 +15273,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15318,7 +15293,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15355,14 +15330,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 35257-2022</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44798</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15375,7 +15350,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15412,14 +15387,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45343</v>
+        <v>45051</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15432,7 +15407,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15469,14 +15444,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 22835-2023</t>
+          <t>A 50751-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45072</v>
+        <v>45210</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15488,13 +15463,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15531,14 +15501,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 2270-2023</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44942.49956018518</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15551,7 +15521,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15588,14 +15558,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 36649-2023</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45153.56041666667</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15608,7 +15578,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15645,14 +15615,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 356-2022</t>
+          <t>A 64770-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44565</v>
+        <v>45281</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15665,7 +15635,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>13.4</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15702,14 +15672,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 1668-2022</t>
+          <t>A 35257-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44573</v>
+        <v>44798</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15722,7 +15692,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15759,14 +15729,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44859</v>
+        <v>45594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15779,7 +15749,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15816,14 +15786,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15835,8 +15805,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G258" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15873,14 +15848,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 13185-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45597</v>
+        <v>45735.38707175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15892,8 +15867,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15930,14 +15910,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 23429-2023</t>
+          <t>A 13192-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45076</v>
+        <v>45735.41219907408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15949,8 +15929,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G260" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15987,14 +15972,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 32522-2023</t>
+          <t>A 1668-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45110</v>
+        <v>44573</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16007,7 +15992,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16044,14 +16029,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 23429-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45175</v>
+        <v>45076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16064,7 +16049,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16101,14 +16086,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 64770-2023</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45281</v>
+        <v>44608</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16121,7 +16106,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16158,14 +16143,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44830</v>
+        <v>44594</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16178,7 +16163,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16215,14 +16200,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 61825-2022</t>
+          <t>A 61534-2022</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44917.58537037037</v>
+        <v>44910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16234,8 +16219,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G265" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16272,14 +16262,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 57608-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16292,7 +16282,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16329,14 +16319,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16349,7 +16339,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16386,14 +16376,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45135</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16405,8 +16395,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G268" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16443,14 +16438,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16463,7 +16458,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16500,14 +16495,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16520,7 +16515,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16557,14 +16552,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45184</v>
+        <v>44938</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16576,13 +16571,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16619,14 +16609,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 58224-2022</t>
+          <t>A 20666-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44893</v>
+        <v>45776.42706018518</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16639,7 +16629,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16676,14 +16666,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 19860-2023</t>
+          <t>A 28003-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45053.90079861111</v>
+        <v>44744</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16696,7 +16686,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16733,14 +16723,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 57608-2024</t>
+          <t>A 14073-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45630</v>
+        <v>45740.43017361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16752,8 +16742,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16790,14 +16785,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 16069-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45749</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16810,7 +16805,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16847,14 +16842,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 54390-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44320</v>
+        <v>45226</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16867,7 +16862,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16904,14 +16899,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 23415-2023</t>
+          <t>A 16986-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45076.50886574074</v>
+        <v>45755.48917824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16924,7 +16919,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16961,14 +16956,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 45426-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45285</v>
+        <v>45576.60533564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16981,7 +16976,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17018,14 +17013,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 50100-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45598</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17038,7 +17033,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17075,14 +17070,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 48875-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44902</v>
+        <v>45594</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17094,8 +17089,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17132,14 +17132,14 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 45422-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44943</v>
+        <v>45576.60320601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.9</v>
+        <v>17.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45983.47664351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44480</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44389</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44617</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44425</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44307</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44277</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44323</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44263</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44655</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44680</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44734.72508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>45755</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44642.51204861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45735.42776620371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44910.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44977.49680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>45184</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45036</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45275.54040509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45013.59376157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45191.47868055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45120.46274305556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44368.8812962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45525.55287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44999</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45076</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45076</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44938.45767361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>44678</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44421</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45817.54246527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45884</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45576.60469907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45818.35171296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45096</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>45432</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45175</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45803.33516203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44685</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44742.39807870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45733</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45923</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45705.56822916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44902</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45924</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45924</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45294.62162037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45525.54172453703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45278.34112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45636.48037037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45880.65108796296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44945.4825</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45938.5725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45938.58097222223</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45938.58679398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44943</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45938.57336805556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45938.57447916667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45715</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44263</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45297.57143518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44594</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44496</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44573</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44917.60373842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44917.60572916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45247</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45285</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>45954.38760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44565</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45959.3483449074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44990</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45597</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44918</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45306</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45970.46565972222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45968.46606481481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45968.48377314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44859</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44859</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44859</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45978.4571412037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45981.64251157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45980.42552083333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45980.43471064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45981.64037037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45982.76739583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45981.79150462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45982.76020833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45758.54484953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44468</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45986.33349537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45986.86888888889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45109</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44617</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>44893</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45153.56041666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>45993.61269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>44474</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44990</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44993</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45993.60136574074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45755</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>46037.57427083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45995.56089120371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45302</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45237</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45195.46368055556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44470</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44651</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>46002.33396990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45774.79278935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45053.90454861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45072</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44358</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44387</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>45194</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44979</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>46013</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44565</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45275.41878472222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44725</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44942.49956018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>45120.45346064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44977.47071759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45096.56784722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44888.46519675926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45615</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45448</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45236.40959490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>46023</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>45076.50886574074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44938</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45053.90079861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45297.57569444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44830.38984953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45174</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>45021</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44762</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>44917.58537037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45110</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>44671</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45317</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44961</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>45069.60496527778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45498.80204861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45764.34591435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>45418</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45181.39582175926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45051</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45210</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45243.69512731482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44950.88934027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45281</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44798</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45764.34427083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45735.38707175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45735.41219907408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44573</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44608</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44594</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44967.4024074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45135</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>44937.4102662037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>44938</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>45776.42706018518</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44744</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45740.43017361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45749</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45226</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45755.48917824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45576.60533564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45598</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45594</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45576.60320601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>45983.47664351852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>45982.28196759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         <v>45986.33541666667</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45992.63174768518</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>44336</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         <v>45109</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44337</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44263</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>44480</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>44608</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44307</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>44389</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>44446</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44487.4566550926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44617</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>44425</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44434</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44389</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44307</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44358.64910879629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         <v>44277</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3745,7 +3745,7 @@
         <v>44323</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44888.46758101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44368</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44368.90224537037</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44263</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44735.48247685185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44879.41210648148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44281</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44480.85344907407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44655</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44680</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44642.49333333333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44734.72508101852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>45755</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44642.51204861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44830</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>45735.42776620371</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44651</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44910.56230324074</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44977.49680555556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>45483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>45184</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>45036</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>45275.54040509259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>44496</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>45013.59376157408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>45343</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>45191.47868055556</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>44937</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44594</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45120.46274305556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>44368.8812962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>45525.55287037037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>44999</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>44623</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45076</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>45076</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44476</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>44938.45767361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>44903</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>44678</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>44421</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45041</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45817.54246527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45884</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>44918</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45576.60469907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45818.35171296296</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45096</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6915,7 +6915,7 @@
         <v>45210</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         <v>45432</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45754</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>44511</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>45236</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>45561</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45428</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         <v>45175</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>45905</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7433,7 +7433,7 @@
         <v>45905</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7490,7 +7490,7 @@
         <v>45905</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         <v>45905</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7604,7 +7604,7 @@
         <v>45905</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>45905</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>45905</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>44320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7832,7 +7832,7 @@
         <v>44452</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         <v>45803.33516203704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7946,7 +7946,7 @@
         <v>44685</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
         <v>44742.39807870371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>45733</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         <v>45918</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8174,7 +8174,7 @@
         <v>45923</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>45705.56822916667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8288,7 +8288,7 @@
         <v>44902</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>45924</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8402,7 +8402,7 @@
         <v>45924</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         <v>45294.62162037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8516,7 +8516,7 @@
         <v>45529</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45525.54172453703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>45278.34112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45636.48037037037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>45880.65108796296</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44945.4825</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>45938.5725</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         <v>45938.58097222223</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>45938.58679398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44943</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>45938.57336805556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         <v>45938.57447916667</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9225,7 +9225,7 @@
         <v>45715</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>44263</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>45297.57143518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44594</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44496</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44573</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44917.60373842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44917.60572916667</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>45247</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>45285</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>45954.38760416667</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
         <v>45239</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9914,7 +9914,7 @@
         <v>44565</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
         <v>45959.3483449074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10028,7 +10028,7 @@
         <v>44990</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45597</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44918</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         <v>45306</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>45970.46565972222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45968.46606481481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10427,7 +10427,7 @@
         <v>45968.48377314815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44859</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44859</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>45630</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44859</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44859</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10769,7 +10769,7 @@
         <v>45978.4571412037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44475</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>45981.64251157407</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>45191</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
         <v>45980.42552083333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11064,7 +11064,7 @@
         <v>45980.43471064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11121,7 +11121,7 @@
         <v>45981.64037037037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>45982.76739583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>45981.79150462963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>45982.76020833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11354,7 +11354,7 @@
         <v>45758.54484953704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11411,7 +11411,7 @@
         <v>44468</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11468,7 +11468,7 @@
         <v>45056</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11525,7 +11525,7 @@
         <v>45986.33349537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>45986.86888888889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45109</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>44617</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>44893</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45153.56041666667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>45993.61269675926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>44474</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>44990</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44993</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45993.60136574074</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45705</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45755</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45623</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>46037.57427083333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45995.56089120371</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45302</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>45237</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>45195.46368055556</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>44470</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>44651</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>46002.32325231482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>46002.33396990741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>45774.79278935185</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45053.90454861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45072</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13037,7 +13037,7 @@
         <v>44358</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>44387</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13151,7 +13151,7 @@
         <v>45194</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13208,7 +13208,7 @@
         <v>44979</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>46013</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44565</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13379,7 +13379,7 @@
         <v>45275.41878472222</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13436,7 +13436,7 @@
         <v>46013</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
         <v>44725</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>44791</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44942.49956018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>45076</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>45120.45346064815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44977.47071759259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13840,7 +13840,7 @@
         <v>45096.56784722222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>44888.46519675926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>45615</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>45448</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>45236.40959490741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>46023</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>45076.50886574074</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>45321</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>44938</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>45053.90079861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>45297.57569444444</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>44830.38984953704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>45174</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>45552</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>45021</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14700,7 +14700,7 @@
         <v>44762</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>44917.58537037037</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14819,7 +14819,7 @@
         <v>45110</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14876,7 +14876,7 @@
         <v>44671</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14933,7 +14933,7 @@
         <v>45317</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14990,7 +14990,7 @@
         <v>44961</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15047,7 +15047,7 @@
         <v>45069.60496527778</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>45498.80204861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45764.34591435185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>45418</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>45440</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>45181.39582175926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15394,7 +15394,7 @@
         <v>45051</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
         <v>45210</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         <v>45243.69512731482</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15565,7 +15565,7 @@
         <v>44950.88934027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>45281</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15679,7 +15679,7 @@
         <v>44798</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15736,7 +15736,7 @@
         <v>45594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15793,7 +15793,7 @@
         <v>45764.34427083333</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15855,7 +15855,7 @@
         <v>45735.38707175926</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>45735.41219907408</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>44573</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>45076</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>44608</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44594</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>44910</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>45630</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>44967.4024074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45135</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16445,7 +16445,7 @@
         <v>44496</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>44937.4102662037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16559,7 +16559,7 @@
         <v>44938</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>45776.42706018518</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>44744</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45740.43017361111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45749</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45226</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>45755.48917824074</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45576.60533564815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45598</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>45594</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17139,7 +17139,7 @@
         <v>45576.60320601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>

--- a/Översikt VINGÅKER.xlsx
+++ b/Översikt VINGÅKER.xlsx
@@ -575,7 +575,7 @@
         <v>45001</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>45961.36752314815</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>44433</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         <v>45226</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45938.58813657407</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         <v>44608</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1283,14 +1283,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 58185-2025</t>
+          <t>A 24223-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45983.47664351852</v>
+        <v>44336</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1337,575 +1337,575 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 32279-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 24301-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44337</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 57938-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45982.28196759259</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Mindre hackspett</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 58554-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45986.33541666667</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58185-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45983.47664351852</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett</t>
+        </is>
+      </c>
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58185-2025 artfynd.xlsx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58185-2025 karta.png", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58185-2025 FSC-klagomål.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58185-2025 FSC-klagomål mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58185-2025 tillsynsbegäran.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58185-2025 tillsynsbegäran mail.docx", "A 58185-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58185-2025 prioriterade fågelarter.docx", "A 58185-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 57938-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45982.28196759259</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 59810-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45992.63174768518</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÖDERMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 57938-2025 artfynd.xlsx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 57938-2025 karta.png", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 57938-2025 FSC-klagomål.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 57938-2025 FSC-klagomål mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 57938-2025 tillsynsbegäran.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 57938-2025 tillsynsbegäran mail.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 57938-2025 prioriterade fågelarter.docx", "A 57938-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 58554-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45986.33541666667</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 58554-2025 artfynd.xlsx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 58554-2025 karta.png", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 58554-2025 FSC-klagomål.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 58554-2025 FSC-klagomål mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 58554-2025 tillsynsbegäran.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 58554-2025 tillsynsbegäran mail.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 58554-2025 prioriterade fågelarter.docx", "A 58554-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 59810-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45992.63174768518</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 59810-2025 artfynd.xlsx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 59810-2025 karta.png", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 59810-2025 FSC-klagomål.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 59810-2025 FSC-klagomål mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 59810-2025 tillsynsbegäran.docx", "A 59810-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 59810-2025 tillsynsbegäran mail.docx", "A 59810-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 24223-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44336</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24223-2021 artfynd.xlsx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24223-2021 karta.png", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24223-2021 FSC-klagomål.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24223-2021 FSC-klagomål mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24223-2021 tillsynsbegäran.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24223-2021 tillsynsbegäran mail.docx", "A 24223-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 32279-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45109</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Barkticka</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 32279-2023 artfynd.xlsx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 32279-2023 karta.png", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 32279-2023 FSC-klagomål.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 32279-2023 FSC-klagomål mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 32279-2023 tillsynsbegäran.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 32279-2023 tillsynsbegäran mail.docx", "A 32279-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24301-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44337</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÖDERMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>VINGÅKER</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Järpe</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/artfynd/A 24301-2021 artfynd.xlsx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/kartor/A 24301-2021 karta.png", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomål/A 24301-2021 FSC-klagomål.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/klagomålsmail/A 24301-2021 FSC-klagomål mail.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsyn/A 24301-2021 tillsynsbegäran.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/tillsynsmail/A 24301-2021 tillsynsbegäran mail.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0428/fåglar/A 24301-2021 prioriterade fågelarter.docx", "A 24301-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44771</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>44281</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>44655</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>44623</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>44608</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>44390.91925925926</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2256,14 +2256,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 56625-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44263</v>
+        <v>44480</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2313,14 +2313,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 11380-2021</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>44263</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2370,14 +2370,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56625-2021</t>
+          <t>A 11380-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44480</v>
+        <v>44263</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>44474</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2484,14 +2484,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 7739-2022</t>
+          <t>A 18744-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44608</v>
+        <v>44307</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>17.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>44525</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2598,14 +2598,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 18744-2021</t>
+          <t>A 36013-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44307</v>
+        <v>44389</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>17.6</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2655,14 +2655,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36013-2021</t>
+          <t>A 7739-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44389</v>
+        <v>44608</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>44295</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>44692</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>44454</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2883,14 +2883,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 47172-2021</t>
+          <t>A 58031-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44446</v>
+        <v>44487.4566550926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2940,14 +2940,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 58031-2021</t>
+          <t>A 41920-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44487.4566550926</v>
+        <v>44425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +2997,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 9648-2022</t>
+          <t>A 47172-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44617</v>
+        <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3054,14 +3054,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41920-2021</t>
+          <t>A 9648-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44425</v>
+        <v>44617</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>44462</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3168,14 +3168,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43868-2021</t>
+          <t>A 18721-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44434</v>
+        <v>44307</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>12.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3225,14 +3225,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 36012-2021</t>
+          <t>A 43868-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44389</v>
+        <v>44434</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3282,14 +3282,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 36009-2021</t>
+          <t>A 36012-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>44389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3339,14 +3339,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 18721-2021</t>
+          <t>A 7742-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44307</v>
+        <v>44608</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12.4</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3396,14 +3396,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 7742-2022</t>
+          <t>A 64406-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44608</v>
+        <v>44511</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3453,14 +3453,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 64406-2021</t>
+          <t>A 36009-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44511</v>
+        <v>44389</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>44830</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3567,14 +3567,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51891-2022</t>
+          <t>A 55645-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44867</v>
+        <v>44888.46758101852</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3624,14 +3624,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 29152-2021</t>
+          <t>A 22052-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44358.64910879629</v>
+        <v>44323</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3643,8 +3643,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3681,14 +3686,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14128-2021</t>
+          <t>A 51891-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44277</v>
+        <v>44867</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3706,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3738,14 +3743,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 22052-2021</t>
+          <t>A 14128-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44323</v>
+        <v>44277</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3757,13 +3762,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3800,14 +3800,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55645-2022</t>
+          <t>A 29152-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44888.46758101852</v>
+        <v>44358.64910879629</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3857,14 +3857,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11326-2022</t>
+          <t>A 31297-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44629</v>
+        <v>44368</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>10.4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 31297-2021</t>
+          <t>A 31312-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44368</v>
+        <v>44368.90224537037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3971,14 +3971,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 31312-2021</t>
+          <t>A 15067-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44368.90224537037</v>
+        <v>44281</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4028,14 +4028,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11372-2021</t>
+          <t>A 56633-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44263</v>
+        <v>44480.85344907407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>11.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4085,14 +4085,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 29366-2022</t>
+          <t>A 11372-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44752</v>
+        <v>44263</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4142,14 +4142,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 26244-2022</t>
+          <t>A 29366-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44735.48247685185</v>
+        <v>44752</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4199,14 +4199,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53384-2022</t>
+          <t>A 26244-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44879.41210648148</v>
+        <v>44735.48247685185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4256,14 +4256,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15067-2021</t>
+          <t>A 53384-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44281</v>
+        <v>44879.41210648148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4313,14 +4313,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 56633-2021</t>
+          <t>A 17628-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44480.85344907407</v>
+        <v>44680</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>11.2</v>
+        <v>1.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4370,14 +4370,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57032-2021</t>
+          <t>A 12856-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44482</v>
+        <v>44642.49333333333</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4427,14 +4427,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14522-2022</t>
+          <t>A 57032-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44655</v>
+        <v>44482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4446,13 +4446,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4489,14 +4484,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 17628-2022</t>
+          <t>A 14522-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44680</v>
+        <v>44655</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4508,8 +4503,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4546,14 +4546,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12856-2022</t>
+          <t>A 11326-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44642.49333333333</v>
+        <v>44629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>10.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4603,14 +4603,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55450-2021</t>
+          <t>A 3748-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44475</v>
+        <v>45321</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4660,14 +4660,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 26086-2022</t>
+          <t>A 35893-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44734.72508101852</v>
+        <v>44387</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4717,14 +4717,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 17169-2025</t>
+          <t>A 7539-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45755</v>
+        <v>45705.56822916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4774,14 +4774,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12861-2022</t>
+          <t>A 18788-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44642.51204861111</v>
+        <v>45764.34427083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4793,8 +4793,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4831,14 +4836,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42146-2022</t>
+          <t>A 55450-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44830</v>
+        <v>44475</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,7 +4856,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4888,14 +4893,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13201-2025</t>
+          <t>A 38534-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45735.42776620371</v>
+        <v>44407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,7 +4913,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4945,14 +4950,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14154-2022</t>
+          <t>A 24106-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44651</v>
+        <v>44725</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4964,13 +4969,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5007,14 +5007,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60298-2022</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44910.56230324074</v>
+        <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5064,14 +5064,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 8465-2023</t>
+          <t>A 12716-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44977.49680555556</v>
+        <v>44999</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5083,8 +5083,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5121,14 +5126,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29490-2024</t>
+          <t>A 9543-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45483</v>
+        <v>44617</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5140,8 +5145,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5178,14 +5188,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44607-2023</t>
+          <t>A 61840-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45184</v>
+        <v>44917.60373842593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5197,13 +5207,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5240,14 +5245,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17656-2023</t>
+          <t>A 61842-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45036</v>
+        <v>44917.60572916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5297,14 +5302,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 63614-2023</t>
+          <t>A 60298-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45275.54040509259</v>
+        <v>44910.56230324074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5317,7 +5322,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5354,14 +5359,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 60572-2021</t>
+          <t>A 18182-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44496</v>
+        <v>45041</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5374,7 +5379,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5411,14 +5416,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 14597-2023</t>
+          <t>A 40831-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45013.59376157408</v>
+        <v>44421</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5431,7 +5436,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5468,14 +5473,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7136-2024</t>
+          <t>A 27238-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45343</v>
+        <v>45096</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5487,8 +5492,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5525,14 +5535,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45149-2023</t>
+          <t>A 131-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45191.47868055556</v>
+        <v>44918</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5545,7 +5555,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5582,14 +5592,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 1788-2023</t>
+          <t>A 16495-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44937</v>
+        <v>44671</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5602,7 +5612,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5639,14 +5649,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4959-2022</t>
+          <t>A 20427-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44593</v>
+        <v>45056</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5659,7 +5669,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5696,14 +5706,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5349-2022</t>
+          <t>A 10154-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44594</v>
+        <v>44979</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5716,7 +5726,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>8.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5753,14 +5763,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32325-2023</t>
+          <t>A 1460-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45120.46274305556</v>
+        <v>44937.4102662037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5772,13 +5782,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5815,14 +5820,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31298-2021</t>
+          <t>A 49153-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44368.8812962963</v>
+        <v>45594</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5835,7 +5840,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5872,14 +5877,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 34450-2024</t>
+          <t>A 1721-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45525.55287037037</v>
+        <v>44938</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5892,7 +5897,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5929,14 +5934,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 12716-2023</t>
+          <t>A 29490-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44999</v>
+        <v>45483</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5948,13 +5953,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10440-2022</t>
+          <t>A 55640-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44623</v>
+        <v>44888.46519675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 24382-2023</t>
+          <t>A 48627-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45076</v>
+        <v>44859</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24414-2023</t>
+          <t>A 48638-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45076</v>
+        <v>44859</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55730-2021</t>
+          <t>A 3676-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44476</v>
+        <v>44950.88934027778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1714-2023</t>
+          <t>A 20192-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44938.45767361111</v>
+        <v>45051</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58842-2022</t>
+          <t>A 7537-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44903</v>
+        <v>45705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 17435-2022</t>
+          <t>A 29166-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44678</v>
+        <v>44358</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 40831-2021</t>
+          <t>A 55092-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44421</v>
+        <v>45237</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 18182-2023</t>
+          <t>A 54780-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45041</v>
+        <v>45236</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27960-2025</t>
+          <t>A 19861-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45817.54246527778</v>
+        <v>45053.90454861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 38534-2021</t>
+          <t>A 39779-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44407</v>
+        <v>45552</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38647-2025</t>
+          <t>A 13201-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45884</v>
+        <v>45735.42776620371</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 131-2023</t>
+          <t>A 45162-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44918</v>
+        <v>45191</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45425-2024</t>
+          <t>A 24382-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45576.60469907407</v>
+        <v>45076</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28150-2025</t>
+          <t>A 466-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45818.35171296296</v>
+        <v>45297.57569444444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27238-2023</t>
+          <t>A 20301-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45096</v>
+        <v>45774.79278935185</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6865,13 +6865,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6908,14 +6903,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 50756-2023</t>
+          <t>A 54112-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45210</v>
+        <v>44470</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6928,7 +6923,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6965,14 +6960,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19645-2024</t>
+          <t>A 24414-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45432</v>
+        <v>45076</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6985,7 +6980,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7022,14 +7017,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 16617-2025</t>
+          <t>A 21160-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45754</v>
+        <v>45440</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7041,13 +7036,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7084,14 +7074,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 64397-2021</t>
+          <t>A 2888-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44511</v>
+        <v>44945.4825</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7104,7 +7094,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7141,14 +7131,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54780-2023</t>
+          <t>A 55994-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45236</v>
+        <v>45623</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7161,7 +7151,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7198,14 +7188,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41953-2024</t>
+          <t>A 1788-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45561</v>
+        <v>44937</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7218,7 +7208,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7255,14 +7245,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 19165-2024</t>
+          <t>A 53863-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45428</v>
+        <v>44468</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7275,7 +7265,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7312,14 +7302,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 42084-2023</t>
+          <t>A 11371-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45175</v>
+        <v>44990</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7332,7 +7322,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7369,14 +7359,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 42455-2025</t>
+          <t>A 19165-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45905</v>
+        <v>45428</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7389,7 +7379,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7426,14 +7416,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 42416-2025</t>
+          <t>A 54051-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45905</v>
+        <v>45615</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7446,7 +7436,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>8.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7483,14 +7473,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 42438-2025</t>
+          <t>A 19645-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45905</v>
+        <v>45432</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7503,7 +7493,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7540,14 +7530,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42407-2025</t>
+          <t>A 48550-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45905</v>
+        <v>44452</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7560,7 +7550,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7597,14 +7587,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 42410-2025</t>
+          <t>A 132-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45905</v>
+        <v>44918</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7617,7 +7607,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7654,14 +7644,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42404-2025</t>
+          <t>A 41870-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45905</v>
+        <v>45174</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7674,7 +7664,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7711,14 +7701,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 42446-2025</t>
+          <t>A 63614-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45905</v>
+        <v>45275.54040509259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7731,7 +7721,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7768,14 +7758,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 22095-2021</t>
+          <t>A 8442-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44320</v>
+        <v>44977.47071759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7788,7 +7778,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.7</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7825,14 +7815,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 48550-2021</t>
+          <t>A 1627-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44452</v>
+        <v>45306</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7845,7 +7835,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7882,14 +7872,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25493-2025</t>
+          <t>A 26086-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45803.33516203704</v>
+        <v>44734.72508101852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7902,7 +7892,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7939,14 +7929,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 18241-2022</t>
+          <t>A 32325-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44685</v>
+        <v>45120.46274305556</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7958,8 +7948,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7996,14 +7991,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 27341-2022</t>
+          <t>A 1128-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44742.39807870371</v>
+        <v>45302</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8016,7 +8011,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8053,14 +8048,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 12714-2025</t>
+          <t>A 17768-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45733</v>
+        <v>45418</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8073,7 +8068,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8110,14 +8105,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45083-2025</t>
+          <t>A 16071-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918</v>
+        <v>45021</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8130,7 +8125,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8167,14 +8162,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45731-2025</t>
+          <t>A 11400-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45923</v>
+        <v>44993</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8186,8 +8181,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>18.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8224,14 +8224,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 7539-2025</t>
+          <t>A 6553-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45705.56822916667</v>
+        <v>44961</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8281,14 +8281,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 59988-2022</t>
+          <t>A 1670-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44902</v>
+        <v>44573</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8338,14 +8338,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 46256-2025</t>
+          <t>A 34159-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45924</v>
+        <v>44791</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8395,14 +8395,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 46239-2025</t>
+          <t>A 6824-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45924</v>
+        <v>44967.4024074074</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8452,14 +8452,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 192-2024</t>
+          <t>A 46420-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45294.62162037037</v>
+        <v>45194</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8509,14 +8509,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35131-2024</t>
+          <t>A 16617-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45529</v>
+        <v>45754</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8528,8 +8528,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8566,14 +8571,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34441-2024</t>
+          <t>A 18797-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45525.54172453703</v>
+        <v>45764.34591435185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8585,8 +8590,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>10.4</v>
+        <v>3.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8623,14 +8633,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 63764-2023</t>
+          <t>A 34019-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45278.34112268518</v>
+        <v>45135</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8642,8 +8652,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8680,14 +8695,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58908-2024</t>
+          <t>A 17178-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45636.48037037037</v>
+        <v>45755</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8700,7 +8715,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8737,14 +8752,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 37740-2025</t>
+          <t>A 5349-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45880.65108796296</v>
+        <v>44594</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8757,7 +8772,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8794,14 +8809,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 2888-2023</t>
+          <t>A 34450-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44945.4825</v>
+        <v>45525.55287037037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8814,7 +8829,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>6.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8851,14 +8866,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49319-2025</t>
+          <t>A 54742-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45938.5725</v>
+        <v>45236.40959490741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8870,13 +8885,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8913,14 +8923,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49330-2025</t>
+          <t>A 10440-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45938.58097222223</v>
+        <v>44623</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8932,13 +8942,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8975,14 +8980,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49336-2025</t>
+          <t>A 57632-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45938.58679398148</v>
+        <v>45630</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8994,13 +8999,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9037,14 +9037,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 2586-2023</t>
+          <t>A 1826-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44943</v>
+        <v>44938</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9094,14 +9094,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49322-2025</t>
+          <t>A 17656-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.57336805556</v>
+        <v>45036</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9113,13 +9113,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9156,14 +9151,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 49326-2025</t>
+          <t>A 17797-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45938.57447916667</v>
+        <v>45758.54484953704</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9175,13 +9170,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9218,14 +9208,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9815-2025</t>
+          <t>A 17169-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45715</v>
+        <v>45755</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9238,7 +9228,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9275,14 +9265,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11374-2021</t>
+          <t>A 63584-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44263</v>
+        <v>45275.41878472222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9295,7 +9285,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9332,14 +9322,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 465-2024</t>
+          <t>A 9815-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45297.57143518519</v>
+        <v>45715</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9389,14 +9379,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 5348-2022</t>
+          <t>A 48644-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44594</v>
+        <v>44859</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9409,7 +9399,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9446,14 +9436,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 60578-2021</t>
+          <t>A 3304-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44496</v>
+        <v>45317</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9466,7 +9456,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9503,14 +9493,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1670-2022</t>
+          <t>A 41952-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44573</v>
+        <v>44830.38984953704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9523,7 +9513,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9560,14 +9550,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 61840-2022</t>
+          <t>A 192-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44917.60373842593</v>
+        <v>45294.62162037037</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9580,7 +9570,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9617,14 +9607,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 61842-2022</t>
+          <t>A 35131-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44917.60572916667</v>
+        <v>45529</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9637,7 +9627,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9674,14 +9664,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58806-2023</t>
+          <t>A 38647-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45247</v>
+        <v>45884</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9694,7 +9684,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9731,14 +9721,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 65066-2023</t>
+          <t>A 58842-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45285</v>
+        <v>44903</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9751,7 +9741,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9788,14 +9778,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 52433-2025</t>
+          <t>A 50756-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45954.38760416667</v>
+        <v>45210</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9807,13 +9797,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>10.7</v>
+        <v>3.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9850,14 +9835,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 55824-2023</t>
+          <t>A 4959-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45239</v>
+        <v>44593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9870,7 +9855,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9907,14 +9892,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 326-2022</t>
+          <t>A 55730-2021</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44565</v>
+        <v>44476</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9927,7 +9912,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9964,14 +9949,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 53316-2025</t>
+          <t>A 60572-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45959.3483449074</v>
+        <v>44496</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9984,7 +9969,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.7</v>
+        <v>0.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10021,14 +10006,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11376-2023</t>
+          <t>A 42564-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44990</v>
+        <v>45181.39582175926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10041,7 +10026,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10078,14 +10063,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 50099-2024</t>
+          <t>A 14087-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45597</v>
+        <v>44651</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10095,6 +10080,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>VINGÅKER</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -10135,14 +10125,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 48638-2022</t>
+          <t>A 60578-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44859</v>
+        <v>44496</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10155,7 +10145,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10192,14 +10182,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 132-2023</t>
+          <t>A 32316-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44918</v>
+        <v>45120.45346064815</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10211,8 +10201,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10249,14 +10244,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1627-2024</t>
+          <t>A 17435-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45306</v>
+        <v>44678</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10269,7 +10264,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10306,14 +10301,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 55303-2025</t>
+          <t>A 24405-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45970.46565972222</v>
+        <v>45076</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10326,7 +10321,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10363,14 +10358,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55158-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45968.46606481481</v>
+        <v>44594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10383,7 +10378,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10420,14 +10415,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 55167-2025</t>
+          <t>A 5348-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45968.48377314815</v>
+        <v>44594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10440,7 +10435,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10477,14 +10472,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 48620-2022</t>
+          <t>A 326-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44859</v>
+        <v>44565</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10497,7 +10492,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10534,14 +10529,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 48627-2022</t>
+          <t>A 55434-2021</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44859</v>
+        <v>44475</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10554,7 +10549,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10591,14 +10586,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 57632-2024</t>
+          <t>A 31298-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45630</v>
+        <v>44368.8812962963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10611,7 +10606,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10648,14 +10643,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 48631-2022</t>
+          <t>A 11374-2021</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44859</v>
+        <v>44263</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10668,7 +10663,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10705,14 +10700,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 48644-2022</t>
+          <t>A 22135-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44859</v>
+        <v>45069.60496527778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10725,7 +10720,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10762,14 +10757,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 56814-2025</t>
+          <t>A 64397-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45978.4571412037</v>
+        <v>44511</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10781,13 +10776,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10824,14 +10814,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 55434-2021</t>
+          <t>A 55824-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44475</v>
+        <v>45239</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10844,7 +10834,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10881,14 +10871,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 57862-2025</t>
+          <t>A 7825-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45981.64251157407</v>
+        <v>44608</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10900,13 +10890,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10943,14 +10928,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45162-2023</t>
+          <t>A 56627-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45191</v>
+        <v>45243.69512731482</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10963,7 +10948,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11000,14 +10985,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 57393-2025</t>
+          <t>A 12861-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45980.42552083333</v>
+        <v>44642.51204861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11020,7 +11005,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11057,14 +11042,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 57402-2025</t>
+          <t>A 27207-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45980.43471064815</v>
+        <v>45096.56784722222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11076,8 +11061,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11114,14 +11104,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 57859-2025</t>
+          <t>A 45149-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45981.64037037037</v>
+        <v>45191.47868055556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11133,13 +11123,8 @@
           <t>VINGÅKER</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11176,14 +11161,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58176-2025</t>
+          <t>A 14154-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45982.76739583333</v>
+        <v>44651</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11195,8 +11180,13 @@
           <t>VINGÅKER</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>